--- a/castilla_leon_1.xlsx
+++ b/castilla_leon_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1824">
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
@@ -1561,45 +1561,24 @@
     <t xml:space="preserve">Muchos visitantes coinciden en que Inca 2.0, en Ramacastañas, merece una parada por varios motivos. Buen sitio para comer. Las hamburguesas tienen un precio asequible y están bastante buenas. La chuleta salió con un buen punto, el sabor era bastante bueno y acompañado de patatas caseras que le daban un toque bastante bueno.</t>
   </si>
   <si>
-    <t xml:space="preserve">Candy crepe aranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pl. Mediterráneo, 4, 09400 Aranda de Duero, Burgos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aranda de Duero</t>
+    <t xml:space="preserve">CREPERÍA GELATERÍA SAN JUAN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crepería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunes, De 17:30 a 22:45; martes, De 17:30 a 22:45; miércoles, De 17:30 a 22:45; jueves, De 17:30 a 22:45; viernes, De 17:30 a 22:45; sábado, De 17:30 a 22:45; domingo, Cerrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. San Juan, 19, 09003 Burgos</t>
   </si>
   <si>
     <t xml:space="preserve">Burgos</t>
   </si>
   <si>
-    <t xml:space="preserve">603 14 64 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lh3.googleusercontent.com/p/AF1QipN_XQlr-rHXxOLZQytAQj4LycrdouRPED_081zl=w408-h306-k-no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candy crepe aranda, en Aranda de Duero, todavía no cuenta con suficientes opiniones para valorarlo con claridad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREPERÍA GELATERÍA SAN JUAN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crepería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, De 17:30 a 22:45; martes, De 17:30 a 22:45; miércoles, De 17:30 a 22:45; jueves, De 17:30 a 22:45; viernes, De 17:30 a 22:45; sábado, De 17:30 a 22:45; domingo, Cerrado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. San Juan, 19, 09003 Burgos</t>
-  </si>
-  <si>
     <t xml:space="preserve">947 26 29 69</t>
   </si>
   <si>
@@ -5257,60 +5236,6 @@
     <t xml:space="preserve">Restaurante Le Petit Prince, en Salamanca, va dejando una impresión positiva entre quienes lo descubren. Primera vez que voy y no será la última. las tostas gran tamaño y calidad (por unos 3€). el crepe probamos el de bechamel con huevo y estaba espectacular de bueno. buena atención del personal. repetiremos sin dudas, 5 estrellas!!!🌟🥰….</t>
   </si>
   <si>
-    <t xml:space="preserve">Segofre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, De 9:30 a 14:00, De 16:30 a 22:00; martes, De 9:30 a 14:00, De 16:30 a 22:00; miércoles, De 9:30 a 14:00; jueves, De 9:30 a 14:00; viernes, De 9:30 a 23:00; sábado, De 9:30 a 23:00; domingo, De 16:00 a 22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/ San Francisco, 48, 40001 Segovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.segofre.es/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625 17 89 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lh3.googleusercontent.com/p/AF1QipNave18cGwbfYLoU41t2ga77-aNacLmNqZTPN_p=w408-h544-k-no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segofre, en Segovia, todavía no cuenta con suficientes opiniones para valorarlo con claridad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurante Lilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, De 13:00 a 17:00, De 19:00 a 24:00; martes, De 13:00 a 17:00, De 19:00 a 24:00; miércoles, De 13:00 a 17:00, De 19:00 a 24:00; jueves, De 13:00 a 17:00, De 19:00 a 24:00; viernes, De 13:00 a 17:00, De 19:00 a 24:00; sábado, De 13:00 a 17:00, De 19:00 a 24:00; domingo, De 13:00 a 17:00, De 19:00 a 24:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Fueros de Soria, 12, 42003 Soria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://acortar.link/hIpWMg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">651 49 53 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lh3.googleusercontent.com/p/AF1QipN4YzRv5UIoFRMKb7AAk5kKAIWHW2IOfhhU2XOa=w900-h240-k-no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurante Lilot, en Soria, todavía no cuenta con suficientes opiniones para valorarlo con claridad.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eh Voilà! Río Shopping</t>
   </si>
   <si>
@@ -5567,30 +5492,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tu Gofre Manneken Pis, en Valladolid, va dejando una impresión positiva entre quienes lo descubren. Local muy pequeño, para llevar. crêpe y gofre buenísimos con bastante variedad de toppings. también tienen cafés, matcha, chai, batidos o smoothies. la chica que nos atendió fue encantadora. recomendable 100%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crepería Media Luna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, De 9:30 a 14:00, De 18:00 a 22:00; martes, De 9:30 a 14:00, De 18:00 a 22:00; miércoles, Cerrado; jueves, De 9:30 a 14:00, De 18:00 a 22:00; viernes, De 9:30 a 14:00, De 18:00 a 22:00; sábado, De 9:30 a 14:00, De 18:00 a 22:00; domingo, De 9:30 a 14:00, De 18:00 a 22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronda de la Feria, 23, 49005 Zamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">980 98 85 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqvMWWeeeqZd_VIoLjERmGw8r2l_saZurWiiGg13vaf5U-q_-hqKFDbjwmBTN-mAai0dcHtKM4tVHramhJp7sSbumBhVMGMMzeTmhu3LyBVtyEvabl8VM2O3xlFYic89Qj4DbI1=w408-h306-k-no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crepería Media Luna, en Zamora, todavía no cuenta con suficientes opiniones para valorarlo con claridad.</t>
   </si>
 </sst>
 </file>
@@ -5600,7 +5501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5659,6 +5560,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5712,7 +5621,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5730,6 +5639,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5928,8 +5841,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D215" activeCellId="0" sqref="D215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A186" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A217" activeCellId="0" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8157,48 +8070,50 @@
       <c r="A56" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="K56" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="L56" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>523</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
         <v>524</v>
       </c>
@@ -8206,52 +8121,54 @@
         <v>525</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="J57" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="E58" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>534</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
         <v>535</v>
       </c>
@@ -8267,10 +8184,10 @@
         <v>538</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>522</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>539</v>
@@ -8282,47 +8199,51 @@
         <v>541</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="K59" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>547</v>
+        <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>550</v>
@@ -8342,74 +8263,70 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>30</v>
+        <v>557</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>566</v>
-      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
         <v>567</v>
       </c>
@@ -8425,270 +8342,270 @@
         <v>570</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>571</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="K63" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>582</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>594</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>601</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>607</v>
+        <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="J67" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>459</v>
+        <v>627</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>629</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
         <v>630</v>
       </c>
@@ -8710,134 +8627,134 @@
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>51</v>
+        <v>635</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>641</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>642</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>645</v>
+      </c>
       <c r="K71" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>650</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>651</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B73" s="2" t="s">
         <v>657</v>
       </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>658</v>
+        <v>504</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
         <v>660</v>
       </c>
@@ -8857,223 +8774,227 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>504</v>
+        <v>665</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="E75" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>674</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>674</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>687</v>
+        <v>270</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>688</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
+      <c r="L77" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="L78" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>702</v>
@@ -9093,7 +9014,7 @@
         <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>705</v>
@@ -9105,14 +9026,12 @@
         <v>707</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>305</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
         <v>708</v>
       </c>
@@ -9128,629 +9047,627 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>302</v>
+        <v>712</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I83" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>732</v>
+      </c>
       <c r="J83" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>494</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>494</v>
+        <v>634</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>641</v>
+        <v>251</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>766</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>514</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>549</v>
+        <v>776</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>517</v>
+        <v>777</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>777</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="J90" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>212</v>
+        <v>469</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>803</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>522</v>
+        <v>811</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="I92" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="J92" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>818</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>830</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>41</v>
+        <v>842</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>842</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E96" s="2" t="s">
         <v>849</v>
       </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2" t="s">
         <v>850</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
@@ -9771,62 +9688,64 @@
         <v>855</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>857</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>864</v>
+        <v>427</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>865</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
@@ -9847,93 +9766,93 @@
         <v>870</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>871</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>427</v>
+        <v>872</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I99" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>874</v>
+      </c>
       <c r="J99" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>232</v>
+        <v>494</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>881</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>494</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>887</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>888</v>
@@ -9942,10 +9861,10 @@
         <v>889</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
@@ -9969,518 +9888,520 @@
         <v>251</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>895</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>251</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="E103" s="2" t="s">
         <v>903</v>
       </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I103" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>905</v>
+      </c>
       <c r="J103" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>910</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C104" s="2" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>911</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>912</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>912</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>917</v>
+        <v>302</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>918</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="M105" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
         <v>926</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>305</v>
+        <v>927</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C107" s="2" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>933</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>934</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>934</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I108" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="J108" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>960</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I112" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="J112" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>982</v>
+        <v>618</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>983</v>
+        <v>41</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>984</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I113" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="L113" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="M113" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>625</v>
+        <v>989</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>454</v>
+        <v>992</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>995</v>
+        <v>450</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>996</v>
@@ -10492,368 +10413,368 @@
         <v>997</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I115" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="L115" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="M115" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>450</v>
+        <v>1001</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="J116" s="2" t="s">
-        <v>454</v>
+        <v>1005</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>27</v>
+        <v>1010</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>617</v>
+        <v>1012</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>840</v>
+        <v>1014</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>1011</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1017</v>
+        <v>251</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>1028</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I119" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>1032</v>
+      </c>
       <c r="J119" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>1039</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>469</v>
+        <v>39</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>1046</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1047</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1047</v>
+        <v>834</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
-        <v>1056</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J122" s="2"/>
       <c r="K122" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J123" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>1066</v>
+      </c>
       <c r="K123" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>1073</v>
@@ -10870,390 +10791,388 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>522</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>841</v>
+        <v>1081</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>1072</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I126" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>1091</v>
+      </c>
       <c r="J126" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>1114</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="J129" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="L129" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="L129" s="3" t="s">
+      <c r="M129" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
         <v>1123</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1125</v>
+      </c>
       <c r="K130" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1136</v>
+        <v>830</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1137</v>
+        <v>71</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="J132" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I132" s="3" t="s">
+      <c r="K132" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="L132" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="M132" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>837</v>
+        <v>1143</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>627</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="J133" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="L133" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="M133" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
         <v>1153</v>
       </c>
@@ -11269,266 +11188,262 @@
         <v>1156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>634</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>598</v>
+        <v>1157</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>49</v>
+        <v>1165</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>170</v>
+        <v>469</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I136" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>1169</v>
+      </c>
       <c r="J136" s="2" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1182</v>
+        <v>14</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>1186</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I138" s="2"/>
       <c r="J138" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E139" s="2" t="s">
         <v>1193</v>
       </c>
+      <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
         <v>1194</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="2"/>
+      <c r="K139" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="L139" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="L139" s="3" t="s">
+      <c r="M139" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1203</v>
+      </c>
       <c r="K140" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1206</v>
+        <v>14</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>362</v>
+        <v>1208</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>1207</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>1210</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
       <c r="K141" s="2" t="s">
         <v>1211</v>
       </c>
@@ -11544,144 +11459,148 @@
         <v>1214</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>1215</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="G142" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2" t="s">
+      <c r="K142" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2" t="s">
+      <c r="L142" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="L142" s="3" t="s">
+      <c r="M142" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>41</v>
+        <v>1222</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I143" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>1224</v>
+      </c>
       <c r="J143" s="2" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>459</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1237</v>
+        <v>354</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>1240</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I145" s="2"/>
       <c r="J145" s="2" t="s">
         <v>1241</v>
       </c>
@@ -11703,242 +11622,242 @@
         <v>90</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>354</v>
+        <v>1246</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>1263</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K148" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="L148" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="L148" s="3" t="s">
+      <c r="M148" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>1270</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I149" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1272</v>
+      </c>
       <c r="J149" s="2" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1275</v>
+        <v>1199</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1206</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>1288</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I151" s="2"/>
       <c r="J151" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1294</v>
+        <v>1269</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>1295</v>
@@ -11947,10 +11866,10 @@
         <v>1296</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2" t="s">
@@ -11974,10 +11893,10 @@
         <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1276</v>
+        <v>243</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>1302</v>
@@ -11986,10 +11905,10 @@
         <v>1303</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
@@ -12010,30 +11929,28 @@
         <v>1308</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>243</v>
+        <v>1309</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I154" s="2"/>
-      <c r="J154" s="2" t="s">
-        <v>1311</v>
-      </c>
+      <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
         <v>1312</v>
       </c>
@@ -12049,7 +11966,7 @@
         <v>1315</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>242</v>
@@ -12064,209 +11981,211 @@
         <v>1318</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="J155" s="2" t="s">
+        <v>1319</v>
+      </c>
       <c r="K155" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>251</v>
+        <v>627</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>634</v>
+        <v>70</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I157" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>1335</v>
+      </c>
       <c r="J157" s="2" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>70</v>
+        <v>1341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>1342</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>212</v>
+        <v>469</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I159" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>1354</v>
+      </c>
       <c r="J159" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1357</v>
+        <v>70</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>469</v>
+        <v>119</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1358</v>
+        <v>556</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>1361</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I160" s="2"/>
       <c r="J160" s="2" t="s">
         <v>1362</v>
       </c>
@@ -12285,49 +12204,49 @@
         <v>1366</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>70</v>
+        <v>1367</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>563</v>
+        <v>1368</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
-        <v>1369</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>1373</v>
+        <v>279</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1374</v>
+        <v>280</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>1375</v>
@@ -12336,128 +12255,130 @@
         <v>1376</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1377</v>
+        <v>1232</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>1378</v>
+        <v>285</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>279</v>
+        <v>1380</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>1383</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="E163" s="2"/>
       <c r="F163" s="2" t="s">
-        <v>1239</v>
+        <v>1381</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>285</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M163" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="M163" s="2" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="E164" s="2"/>
       <c r="F164" s="2" t="s">
         <v>1388</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
+      <c r="J164" s="2" t="s">
+        <v>1389</v>
+      </c>
       <c r="K164" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>1392</v>
+        <v>302</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>634</v>
+        <v>27</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>1393</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
         <v>1396</v>
       </c>
@@ -12473,341 +12394,335 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>302</v>
+        <v>1400</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>1401</v>
+      </c>
+      <c r="E166" s="2"/>
       <c r="F166" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E167" s="2"/>
+        <v>1409</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>1410</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>1418</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1425</v>
+        <v>70</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>70</v>
+        <v>1437</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>1448</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1454</v>
+        <v>70</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I172" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>1459</v>
+      </c>
       <c r="J172" s="2" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>1466</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I173" s="2"/>
       <c r="J173" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>1472</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
       <c r="E174" s="2" t="s">
         <v>1473</v>
       </c>
@@ -12815,10 +12730,10 @@
         <v>1474</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2" t="s">
@@ -12839,162 +12754,168 @@
         <v>1479</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1480</v>
+      </c>
       <c r="E175" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I175" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>1483</v>
+      </c>
       <c r="J175" s="2" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>1495</v>
+        <v>988</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1497</v>
+        <v>41</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>1498</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I177" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="J177" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="J177" s="2" t="s">
+      <c r="K177" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="L177" s="3" t="s">
         <v>1501</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="M177" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="M177" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1504</v>
+        <v>747</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F178" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K178" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="G178" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="J178" s="2" t="s">
+      <c r="L178" s="3" t="s">
         <v>1506</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="M178" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="M178" s="2" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>27</v>
@@ -13003,66 +12924,66 @@
         <v>212</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>754</v>
+        <v>1508</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F179" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J179" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="G179" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I179" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="J179" s="2" t="s">
+      <c r="K179" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="L179" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="M179" s="2" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>1008</v>
+        <v>746</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>27</v>
+        <v>634</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1011</v>
+        <v>1517</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>1517</v>
+        <v>751</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>1518</v>
@@ -13076,195 +12997,189 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>753</v>
+        <v>1521</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>641</v>
+        <v>70</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I181" s="3" t="s">
-        <v>1524</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I181" s="2"/>
       <c r="J181" s="2" t="s">
-        <v>758</v>
+        <v>1525</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I182" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>1533</v>
+      </c>
       <c r="J182" s="2" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>1097</v>
+        <v>1551</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I184" s="3" t="s">
-        <v>1549</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="I184" s="2"/>
       <c r="J184" s="2" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>1556</v>
-      </c>
+        <v>1557</v>
+      </c>
+      <c r="E185" s="2"/>
       <c r="F185" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I185" s="2"/>
-      <c r="J185" s="2" t="s">
-        <v>1559</v>
-      </c>
+      <c r="J185" s="2"/>
       <c r="K185" s="2" t="s">
         <v>1560</v>
       </c>
@@ -13283,45 +13198,47 @@
         <v>90</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="E186" s="2"/>
       <c r="F186" s="2" t="s">
         <v>1565</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L186" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="L186" s="3" t="s">
+      <c r="M186" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="M186" s="2" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>1570</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1571</v>
@@ -13330,197 +13247,199 @@
         <v>1572</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1566</v>
+        <v>1573</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+        <v>834</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>1575</v>
+      </c>
       <c r="K187" s="2" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1444</v>
+        <v>14</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>841</v>
+        <v>1583</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>1600</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="I190" s="2"/>
       <c r="J190" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1614</v>
+        <v>1115</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>1615</v>
@@ -13529,10 +13448,10 @@
         <v>1616</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2" t="s">
@@ -13553,285 +13472,287 @@
         <v>1621</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1122</v>
+        <v>1622</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>522</v>
+        <v>14</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I194" s="2"/>
       <c r="J194" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I195" s="2"/>
+        <v>1583</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>1641</v>
+      </c>
       <c r="J195" s="2" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>522</v>
+        <v>811</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>818</v>
+        <v>514</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>522</v>
+        <v>14</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>14</v>
@@ -13840,22 +13761,22 @@
         <v>242</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>1685</v>
@@ -13872,176 +13793,174 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>1680</v>
+        <v>1689</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>159</v>
+        <v>469</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>1700</v>
-      </c>
+        <v>1583</v>
+      </c>
+      <c r="I202" s="2"/>
       <c r="J202" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>469</v>
+        <v>281</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>1590</v>
+        <v>1710</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>1590</v>
+        <v>1710</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="2" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>1723</v>
+        <v>1287</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>1724</v>
@@ -14050,10 +13969,10 @@
         <v>1725</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2" t="s">
@@ -14074,13 +13993,13 @@
         <v>1730</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1294</v>
+        <v>1401</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>1731</v>
@@ -14089,164 +14008,172 @@
         <v>1732</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="I206" s="2"/>
+        <v>1710</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>1733</v>
+      </c>
       <c r="J206" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>1737</v>
+      <c r="A207" s="4" t="s">
+        <v>1738</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1408</v>
+        <v>1739</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>1717</v>
+        <v>1742</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>1717</v>
+        <v>1743</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B208" s="2"/>
+        <v>1749</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C208" s="2" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="K208" s="2"/>
+        <v>1753</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>1754</v>
+      </c>
       <c r="L208" s="3" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B209" s="2"/>
+        <v>1757</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C209" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="K209" s="2"/>
-      <c r="L209" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="M209" s="2" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D210" s="2" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1767</v>
+        <v>1743</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>1769</v>
@@ -14269,10 +14196,10 @@
         <v>1774</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>1775</v>
@@ -14281,383 +14208,234 @@
         <v>1776</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>1766</v>
+        <v>1777</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>1767</v>
+        <v>1743</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>90</v>
+        <v>1784</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>1783</v>
+        <v>1785</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>1786</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>1790</v>
+        <v>279</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>1799</v>
+        <v>279</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>522</v>
+        <v>280</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="J214" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="K214" s="2" t="s">
+      <c r="L214" s="3" t="s">
         <v>1805</v>
       </c>
-      <c r="L214" s="3" t="s">
+      <c r="M214" s="2" t="s">
         <v>1806</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="E215" s="2"/>
+      <c r="F215" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>1813</v>
-      </c>
       <c r="G215" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>1768</v>
+        <v>1743</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>279</v>
+        <v>1814</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>280</v>
+        <v>1815</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="G216" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I216" s="3" t="s">
         <v>1819</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="J216" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I216" s="3" t="s">
+      <c r="K216" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="J216" s="2" t="s">
+      <c r="L216" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="K216" s="2" t="s">
+      <c r="M216" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="L216" s="3" t="s">
-        <v>1824</v>
-      </c>
-      <c r="M216" s="2" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L217" s="3" t="s">
-        <v>1830</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="K218" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="L218" s="3" t="s">
-        <v>1837</v>
-      </c>
-      <c r="M218" s="2" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>1768</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>1845</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>1846</v>
-      </c>
-      <c r="L219" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="M219" s="2" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>1853</v>
-      </c>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2" t="s">
-        <v>1854</v>
-      </c>
-      <c r="K220" s="2"/>
-      <c r="L220" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="M220" s="2" t="s">
-        <v>1856</v>
-      </c>
-    </row>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5"/>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14761,258 +14539,252 @@
     <hyperlink ref="L54" r:id="rId95" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrwQ5yaPxPwelF2_nK-fTuk7kHJDNLbrOUTHC1PQGaWT5ERmTekqqg-1X99T9T1NevV6bAQoV8gyadqgpJRbzJhOj5oX4h3vyeVoDCo4P8R4f9tef2qrxBvulmufY_aeO4KTLDt=w408-h544-k-no"/>
     <hyperlink ref="I55" r:id="rId96" display="https://inca20.eatbu.com/"/>
     <hyperlink ref="L55" r:id="rId97" display="https://lh3.googleusercontent.com/p/AF1QipPE2xFNXGpHY9USH34pL3PbuMoJp5Cj-67Qnvys=w408-h722-k-no"/>
-    <hyperlink ref="L56" r:id="rId98" display="https://lh3.googleusercontent.com/p/AF1QipN_XQlr-rHXxOLZQytAQj4LycrdouRPED_081zl=w408-h306-k-no"/>
-    <hyperlink ref="L57" r:id="rId99" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr6GrKsX4IrnDHX9XSIWN7h8nHIV2wUTxKya2GhISUCa9YfzmMUbZzkPbS_bjLev4f8ug0BZktYtN5nJPF4I3-hcvxTGMqeir7vG7RHRZkLiqEPxAvumJJogLOVm81Hdy4EjRS9VA=w426-h240-k-no"/>
-    <hyperlink ref="I58" r:id="rId100" display="https://focrep.com/"/>
-    <hyperlink ref="L58" r:id="rId101" display="https://lh3.googleusercontent.com/p/AF1QipNd1COWCIi2NLLzQC_mAqw9mVppjK-a_Xl5T5cv=w408-h246-k-no"/>
-    <hyperlink ref="L59" r:id="rId102" display="https://lh3.googleusercontent.com/p/AF1QipO3McgXBWZJp0-p9DjpHoEvChlTOP17jYYBwVEf=w408-h612-k-no"/>
-    <hyperlink ref="I60" r:id="rId103" display="https://instagram.com/acerogastrobar?igshid=YmMyMTA2M2Y="/>
-    <hyperlink ref="L60" r:id="rId104" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqY6niajDYwxB73UB_-lDx4egq-Ep_Z9hvALAktxVD_t-c1-XzFQ9z0ofvLFxD_cLrw-_NiwA2jM9V8O55cyytgKcSpL8Ivx_KOq4JMNi6_JV67XFH2KtH-35ri6cPOGebjrANg=w426-h240-k-no"/>
-    <hyperlink ref="I61" r:id="rId105" display="https://www.alcampo.es/empresa//tienda/carlos-iii?utm_campaign=gmb_%2Fempresa%2F%2Ftienda%2Fcarlos-iii&amp;amp;utm_content=%2Fempresa%2F%2Ftienda%2Fcarlos-iii&amp;amp;utm_medium=localoo&amp;amp;utm_source=google&amp;amp;utm_term=gmb_"/>
-    <hyperlink ref="L61" r:id="rId106" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq2IsfsxN9FTaHU3LCPxFMFfmamnWMvWw5Uk-QCCLxHiFkY1r4j-u0QGgOZYm_fU-L1UtfW4lRfVUpvElIaAyQohruevkduvM3toT0_50jN6UCwvjgpFqMj8qTOdQm9sYjPqXHd7Q=w426-h240-k-no"/>
-    <hyperlink ref="L62" r:id="rId107" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npsSIaogCQDUc1ASZFJrSgZIbhwmV5_Wo9-nAyqJtvc3ZD3IVhb917egLE06yUWDp5ExIO0WnSJAvunaenzAbiIE7OaNUG1CSbj0NQp24rzhYI6BX8_uFX6WL1xybAhWuCTA6ma=w426-h240-k-no"/>
-    <hyperlink ref="L63" r:id="rId108" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr5rsO_fFD8YeF4NOoMsLTrpMAxLYRl8FLLIQivcvnQ_XAJilrQK6ohxMJPaPp7ZH5HfqY4HbqOuTsxZrzOtpQb8e7bnpJS4jaJGqeYtIgjKSQua9HJ0207GsDI_lXAkk52c6hY=w408-h306-k-no"/>
-    <hyperlink ref="I64" r:id="rId109" display="https://carbonrestaurante.com/"/>
-    <hyperlink ref="L64" r:id="rId110" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npK5BPHaxMHyujkF5cJqaZwyt6ZyO01HMAal5JKD3wuDi046SZKX_cmENkX2dF7ehvASxE88A2BPwHp5Mm2Y60y_NKjy9ZjDi4QEH9BMvb2y106L5XQjQUvJ42jCAbc1jHQpsCc=w408-h306-k-no"/>
-    <hyperlink ref="L65" r:id="rId111" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noEx8I1JXqV1YwPeWBDG0Og58dnh76UCvKj7gSFZ-PUW-osvk5j7yBVGkfBGSPWdmN4CP-5PYgTQ9JxLOxHJ3HPuObIQ9Y96TKYnlkQMIJEC40nOtduMH_X1s5qY2BaaoUivxNxgw=w426-h240-k-no"/>
-    <hyperlink ref="I66" r:id="rId112" display="http://celedon.es/"/>
-    <hyperlink ref="L66" r:id="rId113" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npfnBykSHah6AIKMXFYSMBU5nugzaPpCCwkDDRQvvpGbF6aPCLcBwfRrnI4SRIhSTVhyPtr6873V1FqM-GpoEqobCYipxmygRzbF8jDg5jMA4UY29_g9dZ4DpQyv8ehd58WVSMi=w408-h544-k-no"/>
-    <hyperlink ref="L67" r:id="rId114" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqccHi-1IQuQKy1umjkcYS1TTyjXCgMWDSwJVBXfnOZZ59FhLHklNDrl7x8bFlzqac4qalmQw3JnSLHsdW-ecd-wiht9czcI9nU7-Ff9D-y4xIkYItKBc7asLrqLhRbL_3lPFBM=w426-h240-k-no"/>
-    <hyperlink ref="I68" r:id="rId115" display="http://www.eroski.es/"/>
-    <hyperlink ref="L68" r:id="rId116" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqn--AVuUZwlRs2APteqP1UDKhtB4Bb6RbCnF_WM5PNp_wF8iMtaugBNh2c2PfwtTe3vM7e_a_2MKLAwhzsRxopuHxKbt94ex8xGwtj9DKx37h_LaH76ZOB7Enuotmfu2KRUEnZBg=w408-h725-k-no"/>
-    <hyperlink ref="I69" r:id="rId117" display="http://www.gmcash.es/"/>
-    <hyperlink ref="L69" r:id="rId118" display="https://lh3.googleusercontent.com/p/AF1QipN0L4t6OGUCZJ8iRMJQT8lXkFv2CAyiKNO3TKOQ=w408-h272-k-no"/>
-    <hyperlink ref="L70" r:id="rId119" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=kjmmtjtgfgIf1fi7tViGtA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=142.38246&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="L71" r:id="rId120" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqW01_6bBqjd2DLzkJHhCfo-x9WncuW1lMIlRoxqFBTtCMLGCQ6J8nUupYiKIWDXXzymi_YT4krQepcmVGo1GuDPF0-ga2YNRDZ8qOxv5l9zmyiMU8DdtfUl0wuA7KpzhP-fiqD=w521-h240-k-no"/>
-    <hyperlink ref="I72" r:id="rId121" display="http://www.e-leclerc.es/tiendas/miranda-de-ebro"/>
-    <hyperlink ref="L72" r:id="rId122" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nojiVEqwVdC3b7R4Lmnqj6Wa2tyaXPzGEVLQY4h8Wlzz6bTMtlu3WIWZkN09uA7W-8RK75zf4bD272Zkg5B5TrebWkTLmdAoM4YjADDsGkSLsmy6P0IJ7dqnYEAOSu6QicU0DXspQ=w426-h240-k-no"/>
-    <hyperlink ref="L73" r:id="rId123" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nodQebv6rXkyPG5Q2WWvhe-1l74Cb4R4egmrcD4nDpTrHtTNMg4MzzjEqioyC8mXVt5g-vrlfn_xPS0bpypOBAmZznOm_fI2og-yo7LvQ9xNfg-NLuGWMgjRCKQnjNrHeSpX0FDzQ=w426-h240-k-no"/>
-    <hyperlink ref="I74" r:id="rId124" display="https://www.sercotelhoteles.com/es/hotel-ciudad-de-miranda"/>
-    <hyperlink ref="L74" r:id="rId125" display="https://lh3.googleusercontent.com/p/AF1QipPY_smtgl5NqvYw3vBTRy8Y_82i7ZvMu2eGsxh2=w408-h271-k-no"/>
-    <hyperlink ref="I75" r:id="rId126" display="http://www.hoteltudanca.com/"/>
-    <hyperlink ref="L75" r:id="rId127" display="https://lh3.googleusercontent.com/gps-proxy/ALd4DhFQadoVcD3xDpPylq-jLTh0LNZYHi8RCQcuX1Oo7U-ACilEdkOdvaF1vNp_gxuNZT9idKBO5UmcuDgwmeiEUKotG487X0LLxMDHRe8bwAiQlZorZB-qAz_ha1kpxaDB4mbu98qUXSFKGxYVUsCq7yuIY7-PcwQCrEuUIupfoensWSWUWNlvNHc8=w408-h272-k-no"/>
-    <hyperlink ref="L76" r:id="rId128" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=ZODIvmaR8Blg9PKgRIG2Wg&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=327.549&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="L77" r:id="rId129" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq4ssw87UalxtigiLAE2Gev4JVTDsiiULEt8Htm5tpLMfa5054kwhmHvTqS5UeP419wqc2aWi8VCD6RCx_u8FWqe8Z2oe42sN8aKXjrVbAe5-h7UUyS3Qd7SZ3NHTkFKpU5L9eh=w408-h544-k-no"/>
-    <hyperlink ref="I78" r:id="rId130" display="https://www.lidl.es/"/>
-    <hyperlink ref="L78" r:id="rId131" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrTxiyBcmUUfzwQRYE_SoY_dBmTLFa1OpT_rE3yrHcldgogOGQXY2pGrCb7hhlop0EMyJJfYSF0pLCXKGE_JTr664BorayMfD-8NH-aGhnNMiuFYOHtnriRA3a_kKPqpUijHm5zhw=w408-h306-k-no"/>
-    <hyperlink ref="I79" r:id="rId132" display="http://lupa.com/"/>
-    <hyperlink ref="L79" r:id="rId133" display="https://lh3.googleusercontent.com/p/AF1QipMP3qA15SBYDl6WUJWP8ygi2Rx3kbHINLH-Pw4G=w408-h306-k-no"/>
-    <hyperlink ref="I80" r:id="rId134" display="https://www.mercadona.es/"/>
-    <hyperlink ref="L80" r:id="rId135" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npva-ugwO8i55ZbBrplvDfeFsVJYyWYkbQBkoXN0al22oLSrPpXqVucTup3wzYqATnO42RvIBnjWwk8HD7YqmChhhDVsRQH7jbC1LUEjuGTjCR0mzyZ7UUIJWHPu7w-PoaShn1s=w408-h305-k-no"/>
-    <hyperlink ref="L81" r:id="rId136" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npb2ck_bpLvhrKnmYC7csSxvm6EeZBWaBU3Qj6fdIVgIaabmC1QbVq4GCaUzrpHKEb6fVb8RQl_tzH1jKZHxY7dqb0zjK9S89JQqL0vwzUy8EPBzgR6MuaNE71aiyJv216dql4=w408-h306-k-no"/>
-    <hyperlink ref="L82" r:id="rId137" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nozGcRDoPn7FEOokadeTgplZaD44VNT8m0xwwgB353Lq7zwZxfehZs_v6Sm5cGPuz0zS6CgKAigVHngtyQJvkw1V7P2KQ6Kp-Rf9_DL2ALRAi0xNZFiGuN72wC7YAnrncPXHbUO=w408-h306-k-no"/>
-    <hyperlink ref="L83" r:id="rId138" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npPrBMIRMJdyEtH3Ye20_QQpxK-nIWPn1hCfXbNscX7BLz4jPCp4qOGUejt-8Y5vgSnOiUgPLgfjPRphVmxT-cn8_FqypArCOKhqwr5XiC0RYLMGGzkDjMNSaFFRDsZHVelhhZYGg=w408-h306-k-no"/>
-    <hyperlink ref="I84" r:id="rId139" display="https://www.la-roca.es/mercado"/>
-    <hyperlink ref="L84" r:id="rId140" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqrLsoqMTo4081qVex8TwV_LwRuAeKMcQkkToW8nceodqcjH_ic9foEydZqrUh5eosumdToujWueaOWk6Pyx14clsan8gt47lQVsJRq-99sZCos9VH-r3bX3ASFrnw0G1L9S58xYg=w408-h252-k-no"/>
-    <hyperlink ref="I85" r:id="rId141" display="http://suite.cafe/"/>
-    <hyperlink ref="L85" r:id="rId142" display="https://lh3.googleusercontent.com/p/AF1QipPRQrGe8ZIFiu-vhojN6hSEd_d1az1oTRNS0rim=w426-h240-k-no"/>
-    <hyperlink ref="I86" r:id="rId143" display="https://www.tedi.com/stores/8166/ES/Castilla-y-Le%C3%B3n/Miranda-de-Ebro/Burgos/Calle-Arenal-71"/>
-    <hyperlink ref="L86" r:id="rId144" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nosOVbySKnLFLsBkMUQuym3hZJWLKeu-R1KyDzqcuEvJhr226N-n0ZGUJ4TGSIN7Ug5vomKbSj4LauqD_NR45jvR7tZkXl4keOGM5YotbSRnvNuWJ4oO_juWuMWCABfwsDhu_A=w408-h600-k-no"/>
-    <hyperlink ref="I87" r:id="rId145" display="http://restaurantetombola.com/"/>
-    <hyperlink ref="L87" r:id="rId146" display="https://lh3.googleusercontent.com/p/AF1QipP3mUvmd_0ZDLbijF-GqSld3-8dwZfVYiBTtXCr=w408-h306-k-no"/>
-    <hyperlink ref="L88" r:id="rId147" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrq0H_O9_813fPE-fJKcYyyGzjjmJGyqgWbQtrda3oqpkza1oYjufmIwxnkP5cP_P-dKsf7ofke5Kr_6OFJpoxQydoJ41tSR_yJavEf9EfdM8Yoo53w9BN51CnBxhxGZ3NTRs-s=w408-h306-k-no"/>
-    <hyperlink ref="L89" r:id="rId148" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnEbHc8oLJ6FutAkDS-5rSc5DlIqNKRSVdFGnUPVuWgBspyA_EoYxrifgyxv9Hr9pY-m_3aFVCFg8JIHkjS9XA8EE8zL0xvv1m02yF8Y02JvBrV08Dcx_m2ENsB87V18TLynU=w408-h544-k-no"/>
-    <hyperlink ref="L90" r:id="rId149" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqfQhaYg7Tpy8sptXi_XY2MPNuv4TlfIieH6BgkZdEKrM6PDtnGTgkrwNSg9vHZrUPQQpnOxG4SRCxGBu_DF2C272Rm_MDg_vh-QTVXfxydUFs5-dtllikyN3YuUIMjBSUbwwpI=w408-h544-k-no"/>
-    <hyperlink ref="I91" r:id="rId150" display="https://www.breizhcafe.com/"/>
-    <hyperlink ref="L91" r:id="rId151" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrl5-NkExeNm0h9495rx7anE2jB_5x7inCRYI5FvqcPy5ygjhqPfHJX4d4xyS-iC4th_-99XLJkWmlL9JRvXV3V3Bf0mQCnIE8BwNGrolhrHXzLyR9W4jGL2Xgc9Hwc99we7JUXhA=w408-h306-k-no"/>
-    <hyperlink ref="L92" r:id="rId152" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrE7bvrT1eAaEuRqRlL14YYsQhXaCVf09xly5BuxoAcHWGnUPlFJH40Y1vUrnCdSbELkKHirCwxDHxI6j-mSXQRhSIquJZ2nM78Yp-GO6sr5M7N6HtNuZTxaiPNcKFRaxa6e_PUXg=w408-h544-k-no"/>
-    <hyperlink ref="I93" r:id="rId153" display="http://creperiebretonne.com/"/>
-    <hyperlink ref="L93" r:id="rId154" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nohBLW2wzdMB385nK0T49nDBomeaZusGLO--ec0JmnTuP07QchOSRgA_KBZh-dfaa8VyQ1a5LcSv8IyTNLX3B3W9ukZhh1MoYfXY8eNendoOT0CmMnS2mJLxImR8tLDw65Q24mnYg=w426-h240-k-no"/>
-    <hyperlink ref="I94" r:id="rId155" display="http://www.lavedetterestaurant.com/"/>
-    <hyperlink ref="L94" r:id="rId156" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npg5m-q98vsM9YvuKP0qJtt9M9hdmCT7i0hOoA9CejTOM5FAY3LxKTGY6jR59cbZl4lDdMjGFusVDFNtnruNonieZ--6CoFBnN1FJEvAet73880HCS9hdU6G8qeSU3_V9yPSGpZ=w426-h240-k-no"/>
-    <hyperlink ref="I95" r:id="rId157" display="https://www.familiaonline.es/"/>
-    <hyperlink ref="L95" r:id="rId158" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrJ92lFyiiiINGNxL5fQLqfzB7Ns3PoloEY3vhWcNT_1Z-1uQISGCgTlSUQW396PsJ-mtN2ht6J1CCI_m6lLicwEA1rFGsglS6gQTex8YncG2xGpmF2AK_QqStwERg2NJlOmtm_=w493-h240-k-no"/>
-    <hyperlink ref="L96" r:id="rId159" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnAMLbXUr3sb2YJUr19ihNInMmRwYwqtsaXM9bo-h9pAu7CzuOoeqRr192WCCop6raE0xXgO3UAfzMvDrc2sisIR-SsX6GMSLrYsesItbPCfl4727YlzM-WewKMzi0XoNX5u6_Qg=w426-h240-k-no"/>
-    <hyperlink ref="L97" r:id="rId160" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nol-yi4BYX65BDighrQpeiP0MUtSwQs3tyGLgC_Biqf6p8mlyowEHoCcnDJTIHi0iBzRRcAlhx0JGab-ndk4udPKfsZjqHwYSB6eLbE0zWQ3HFQE9xsUvxUhjhYTNMY2OkOZCDQ=w426-h240-k-no"/>
-    <hyperlink ref="L98" r:id="rId161" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrCt5hMAT6wiNkdWo0N8z2WzMsLXzg3qZXOxYLg1motfpCUHnCXfLtWxJY5SWSd1QkFT1izc6JPR1kqhME42Q9H6p0NlbPHFrFdWNkSib7fNmU7haClU4bFGX4KoMl7OperWeZOhQ=w426-h240-k-no"/>
-    <hyperlink ref="L99" r:id="rId162" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npUIzmfQNhRyFWbQtbIa9vzaSS1TZwqGl2CFyx5mf_5RrBdeG94IsvPB7GgVG0x3aEcL71QVcprMPKcef8e2QyLint6I_JN9bBfhG3LBsBpt0JXZSx_xr6ArmGZw6wTszg-bJmM=w408-h306-k-no"/>
-    <hyperlink ref="I100" r:id="rId163" display="https://merles.es/"/>
-    <hyperlink ref="L100" r:id="rId164" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noZ172KZBZmIqBNOx6dDgmzQ-mFS4QOoYUzrs9muYm6WOEp_9bRnHX6gtQmefeUd1qDPy0xTLXsRdC-3NQgyWdG3tCY58hM0p3M-kIRtGok878o51t4bSbH80h_dD7Vr9JNs8j8NA=w408-h272-k-no"/>
-    <hyperlink ref="L101" r:id="rId165" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrMxL8vXJfoIY9YG1ZPRdY7zEoTbbgBPe7bRZbtW-QhN6HYjhctFCXX52Oap2hmFBRrvWlyFtO4lKmMA2y9JfXYaHDgO6eNCJzAQxvqgq6VaGhZkL3lqHyY_ZC6vJF8ErHIlF75=w408-h544-k-no"/>
-    <hyperlink ref="L102" r:id="rId166" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrYOB04W_B73fGyslBuqb6bRHA-nAlpnfkrWqse2rrNxxGAaTT-uW-RfqJWWeoTS_e0RhHpSydZ806TK87fx-siY6kOoy39x6IMrMdLAvBFsrPJsyRSwlc9WngxwhaoL5SQIcc=w408-h306-k-no"/>
-    <hyperlink ref="L103" r:id="rId167" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrQ2hD5ZFg5R1QiD8jrR_8t4S48ntfesfjdNw1eMR_nRtnIjGXkXr1GQyxtMnrUBCV6nj8csUEzL5mu3PMX4jhRuS-IGMR_By5W4vAyqZPOYBZ64DxZN15HyqmuzBs7PDRAX2hv=w408-h334-k-no"/>
-    <hyperlink ref="I104" r:id="rId168" display="http://www.gaudihotel.es/"/>
-    <hyperlink ref="L104" r:id="rId169" display="https://lh3.googleusercontent.com/p/AF1QipOW-Jdz0gRwIdoguAnh2nBJym1YUXiCYTo--gJr=w408-h281-k-no"/>
-    <hyperlink ref="L105" r:id="rId170" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrgpkHL3JsYqCuY1j_G_sHuHr2CjL79c1K6FM_0hITDs4jEP2Cm8wDohNYpCe-obWqSssHUnBkmEBpe4uQ0a-qlsER4yq5xv5aH1yBPdx2E9_nef_xuD1A1f122-yI9Iziww5tXxQ=w408-h544-k-no"/>
-    <hyperlink ref="I106" r:id="rId171" display="https://www.mercadona.es/"/>
-    <hyperlink ref="L106" r:id="rId172" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np5vgXpn2zgYgvIs_LKxtSXB2unG-4Yl_ZzV-33FH3XuVXopKSBTGfarOh70_ZT_jzhTm9L8IeRf3XoN4QkuCS6awhyxLuJyYG7O3Jn9pg7nfru0LY5QQ8bIyjhmvF6rIFocwM=w493-h240-k-no"/>
-    <hyperlink ref="I107" r:id="rId173" display="http://www.restaurantelapeseta.com/"/>
-    <hyperlink ref="L107" r:id="rId174" display="https://lh3.googleusercontent.com/p/AF1QipO3E_3Am5IsvfbFQ7RatMSxYTqxf9nROxno2nwM=w408-h270-k-no"/>
-    <hyperlink ref="L108" r:id="rId175" display="https://lh3.googleusercontent.com/p/AF1QipPLixQMt39bJGqM3zh4MsKfK98JFyuQE5uw-a0P=w408-h544-k-no"/>
-    <hyperlink ref="I109" r:id="rId176" display="https://casamaragata.com/"/>
-    <hyperlink ref="L109" r:id="rId177" display="https://lh3.googleusercontent.com/p/AF1QipPrPBomWGid8vebC9kyGCSJDjO7X7fCBQCM0AeN=w408-h272-k-no"/>
-    <hyperlink ref="I110" r:id="rId178" display="http://www.casamaragata.com/"/>
-    <hyperlink ref="L110" r:id="rId179" display="https://lh3.googleusercontent.com/p/AF1QipMknFFSJYWrCGVouWVy3gXYb1C_HqK1YL9mKNaM=w408-h272-k-no"/>
-    <hyperlink ref="L111" r:id="rId180" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr_X8bKAsnU_zRgMCpugc6Qr5X4GC6DIMU2IROZAVBdxeNmBXlmjOvFmIGtsSzOxnLVnDYvR3ZlzH9FnGjWIWJOC2-2K_4LRGPJzupUT3FFDmWotNAePZWGNhP0cJY-ML8HgG0p=w426-h240-k-no"/>
-    <hyperlink ref="L112" r:id="rId181" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no2VChIB3TO9pjn0rkFBalwUqiBjw5J4XBNs9ziJ6Rt7uWBrOPPcyYOMZlh-aa_YfpMic9gIjrMlv3XQycdzumUjtLeNFlfSHZ7N393epyOJ6warmZjfF6kydxYMeAgmQT665g=w426-h240-k-no"/>
-    <hyperlink ref="I113" r:id="rId182" display="https://www.tandemastorga.com/"/>
-    <hyperlink ref="L113" r:id="rId183" display="https://lh3.googleusercontent.com/p/AF1QipMcERdKt8lfntfOgG1l9RJOQdvpMOYa9qObJyaW=w408-h544-k-no"/>
-    <hyperlink ref="L114" r:id="rId184" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrb6EmS_lAVhRFqtzIQ_Lj6PfqGCgHWZdNJ56II9dgxZtM-5lRr3K9ox7-ntN_7TCjh6iyHDhjJUwJModqtbaa0jWXpX8isGugcvkLvcFsB3CXoIMdp0p88XlESfmhniFX8-Saw=w408-h544-k-no"/>
-    <hyperlink ref="I115" r:id="rId185" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
-    <hyperlink ref="L115" r:id="rId186" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq8SJHILsdd7DKM5qwl1c3imqgYVEtA5GBEvTiOSu8HqhIalqYyXPueIINeAdUUpCaNMalE5h5IRAgZPqGohJS5htczIir6tfk6wehkNgoxYnqhJ07YlJu19ZwnZfVlOmsl1YPF8Q=w408-h306-k-no"/>
-    <hyperlink ref="I116" r:id="rId187" display="http://www.dia.es/compra-online/"/>
-    <hyperlink ref="L116" r:id="rId188" display="https://lh3.googleusercontent.com/p/AF1QipN6-p3ELnxXKXSXcE-puzH0tzQFa4mrF_LffWUV=w408-h306-k-no"/>
-    <hyperlink ref="I117" r:id="rId189" display="http://www.gadis.es/"/>
-    <hyperlink ref="L117" r:id="rId190" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npCj-UGPZasT_wo5QnGA6d_ekSTePIY0DTZdYWa1g4cIh5dSROh_XgAJElpiXuEio8d_IZTQgaHBHv70gdYa-NcxU9qugw28UN0ftvXnV6Twhvv3qbjVpfn3VsPT8kKXBm0G6w6=w533-h240-k-no"/>
-    <hyperlink ref="L118" r:id="rId191" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqCQLq0pRPlXsj8Vc-V9EwHEz_JDHwRzmFR6lErpAvUvYafagexVS66WtnczqNrBpW8tWYyg_S57CpF6u2m38-lEDF8zv7jHNs784VhX1j5lxUORMnEIMfRnX24E03lqfOnyVxR=w408-h306-k-no"/>
-    <hyperlink ref="L119" r:id="rId192" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrTcNaa3F9hN1uXhvcLJox6V9w3UrBVipiX2ANXVitLkI9-h84Jd6sTc960G0s_rNPnm3qrrNh_n2OMh7THqXzLKGsUGIy080absbCTyrx8cx4r56-xr4fDe8qrGxJssgMvcnNTvA=w408-h306-k-no"/>
-    <hyperlink ref="I120" r:id="rId193" display="https://restauranteelbayo.com/"/>
-    <hyperlink ref="L120" r:id="rId194" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq6QvCYl1wjhIkXOuZKLTCOCuhprTHwvxLcKls5CzlcGezInNvQmXVC-8oJU05ry-gzHJW7qWeNai6eDHdns9JLtFJYkmIXSIKRKEd4nPPO8Mkdjhgsx77mLphACt7a59-_ZLDN0w=w426-h240-k-no"/>
-    <hyperlink ref="L121" r:id="rId195" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noPYTbmUXvWInYdiP3CNnLtfi1A04RKFpFlU-TG0m43ETaHt9szCblvar5nqtbvYKaJPrUZd_SP6rNwsjbn2B5ZKqrnhwcvdt0MtlgIkErserIK1USAxQOmH0pXbS18UKPyOC4l=w408-h612-k-no"/>
-    <hyperlink ref="L122" r:id="rId196" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqJpv9Kz8j24IZBb9aOhQ_u6vXDk7EhRB6IhStIZBYYvQgP-LYE8GS8U92nAaaOEv0aBhGrTGsDTUSKah9G0Nidn-Oyy0sBNA2HTZz91Lld7V9Trsekank71MVVCRlrhd1p2-jRkA=w425-h240-k-no"/>
-    <hyperlink ref="I123" r:id="rId197" display="http://holycow.es/"/>
-    <hyperlink ref="L123" r:id="rId198" display="https://lh3.googleusercontent.com/p/AF1QipPFmbRRJ0UDuy28FwArGkij49TNG6saGK7ejiDt=w408-h304-k-no"/>
-    <hyperlink ref="I124" r:id="rId199" display="http://www.lioncrep.com/"/>
-    <hyperlink ref="L124" r:id="rId200" display="https://lh3.googleusercontent.com/p/AF1QipNRdEo584NodKS8LW2soYD8k7Y-IAC3MVR_zU-l=w408-h306-k-no"/>
-    <hyperlink ref="I125" r:id="rId201" display="http://www.lioncrep.com/"/>
-    <hyperlink ref="L125" r:id="rId202" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npscPR1winlLWRzX-SPJRttWkEs3vY8zTouSmhbNc2P2Vbo8A1RqCX2yJcgGtf2oBRiH_xh6QjPryC-iRsRN3Nl6qrz3Dkpt20Xj6HEBj6XzgZQbSmo_a683MM7AB2fVnikcnwd=w408-h306-k-no"/>
-    <hyperlink ref="L126" r:id="rId203" display="https://lh3.googleusercontent.com/p/AF1QipMaS6kWYbDQ-vGpCLkJZTna7vMYp_obUC4sP_5v=w408-h306-k-no"/>
-    <hyperlink ref="I127" r:id="rId204" display="https://7sillas.es/"/>
-    <hyperlink ref="L127" r:id="rId205" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrAZK_rGClKux5JxGGcTrFCJ9sF4p393KrSeOvkYzxtB-ktSCQoL5TAsTdOWWE_ek9fFZ4jpJBy4ElMjOF-bgwIZnuL3jSsVanxJwrBYl8OKNrktUbnxtC5UPIWZqR7ZdXEczA=w408-h306-k-no"/>
-    <hyperlink ref="I128" r:id="rId206" display="https://www.agoraponferrada.es/"/>
-    <hyperlink ref="L128" r:id="rId207" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noTAqlPlwvSmJQvgJ91qCU8cqdTQoFuXxM8Hlmq4BdJB-itvscTBYUqXkYip9kOvASrXWx080XdudScDfvwj61rhGgbR50BytS_6oUEXubusuVdRyZt1UkFIHsdz1xVG7EkFEpm=w426-h240-k-no"/>
-    <hyperlink ref="I129" r:id="rId208" display="http://www.aldiroficinas.es/"/>
-    <hyperlink ref="L129" r:id="rId209" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npTXSsEhTC6ZzAU2vRM0rqF8lIu9GUXotR_-uA-UMtTHEpiEIetSxGbZdJMx0GKJmxq4FdML4h6ssWHNBAxvAlHWWaVprJmgkm94ye5teFQsj1CSoMxjvrdvAJTX1vNQcoWQApd=w408-h725-k-no"/>
-    <hyperlink ref="L130" r:id="rId210" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noeczMlBi6VoI1et8JMRlGGUcGQDjJBgx8h8s4gd7PkdPZhg9xzEgUKjafwHtgShLdnnV58CHMsU1Cjzku7bYwvmmrwU58PSI46jCRE_CKV0wIjmwYBnsUIr3KjK5DTUl7KpJUg=w408-h481-k-no"/>
-    <hyperlink ref="I131" r:id="rId211" display="https://arcodelcenador.wixsite.com/arco"/>
-    <hyperlink ref="L131" r:id="rId212" display="https://lh3.googleusercontent.com/p/AF1QipPg7T9njzXdqBAblkcFFV7zpEPKb2w2l_fhsZz6=w408-h272-k-no"/>
-    <hyperlink ref="I132" r:id="rId213" display="http://www.astiarraga.es/"/>
-    <hyperlink ref="L132" r:id="rId214" display="https://lh3.googleusercontent.com/p/AF1QipMdOJLEuz1sFTaLohwcg3ahpn1moKzbXtGzZYbB=w408-h266-k-no"/>
-    <hyperlink ref="I133" r:id="rId215" display="https://www.familiaonline.es/"/>
-    <hyperlink ref="L133" r:id="rId216" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrPPN5VyEMWFvpUWtvHgZuRjQid19zDJh0XC6Kpialy-QCEIbHadpEqUpD1XUOmqMq_U2h7kTT7PIfpF3k5RsakDMMFlz2Ameg3T_w8u2RHJ5t548rI8BExJZ4xdCDfh42HgWg=w408-h303-k-no"/>
-    <hyperlink ref="L134" r:id="rId217" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=I2qJFJXi38gRJsmQJ-kj6Q&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=307.1283&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="L135" r:id="rId218" display="https://lh3.googleusercontent.com/p/AF1QipMNVMDX6J7UEmi1MYlL4DrnIdYMOsoDs4HCHSuf=w408-h306-k-no"/>
-    <hyperlink ref="L136" r:id="rId219" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=ysUOwA_LvMXjx1NAHSte1Q&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=206.20602&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="I137" r:id="rId220" display="http://www.bierzosabor.es/"/>
-    <hyperlink ref="L137" r:id="rId221" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noR7v6u_DiFEFEkHHcB0WRGVTPAR2lg9mkVyN0FXZQG33INvHWzinUNRmYcbDCOXmSGvElDUxBi8Vz838brYCWcrTDrzKHFUoXyZhAeA3T2sGHS7NDxwwEzb-BU63cqyieI4rU=w426-h240-k-no"/>
-    <hyperlink ref="I138" r:id="rId222" display="http://www.bricolor.es/"/>
-    <hyperlink ref="L138" r:id="rId223" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrXfLaOMnZJ6yH4kUOX9zSs2PBzRTnVDRUfhmsaB2FMHlOw6-C8mBCpdRTmMnaXkQZPLlpu9yhugU1869dnzKG59uF092Unkfc-DqyxH-OFxaO8KOT8k0bO-D1aWjmyQHCpxDk=w408-h544-k-no"/>
-    <hyperlink ref="L139" r:id="rId224" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqJtI30bqOJlC3Wl_t623Y70TFPRjKWXA3eFqP2Dp0thKsl1z6yHvs6rr0tr3kU7P3Bs6qjczZ9XWpXcttRCUASs_psk-W1ihuKExADt5k8O-4NKVBSVodO2f0_-AhyF1BcYR46Hg=w408-h306-k-no"/>
-    <hyperlink ref="L140" r:id="rId225" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqOQ06dHU7tguu3O8LJ1iBT_nELibswglNySPvw1B5T13FcG0qexl9Rr-xDzo8cqZwaDdBS8ssPylF5lfx1qngM-ECnA-OGoM6wU1tnlB7PHZgf0YU6IwZxf3J6iJU1rQtsd3A=w408-h510-k-no"/>
-    <hyperlink ref="I141" r:id="rId226" display="https://www.cantinamariachi.com/"/>
-    <hyperlink ref="L141" r:id="rId227" display="https://lh3.googleusercontent.com/p/AF1QipMglaI-tGEkwlEcboyZ6S632xw0AQ0u2Fo4g7Wz=w408-h408-k-no"/>
-    <hyperlink ref="L142" r:id="rId228" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nopQ-HLD-DXkihUFlLkMStUq3Qo4ZbAB_fSrIWXbkGmwfGsllXULOs85oS6Zq--8fEt74BdLhbvSAi-Ad7bcfiVfU5pdMavmKowZowvUn5MS1YJRXnnCJiTcxa40k_BKUWh4LGz=w426-h240-k-no"/>
-    <hyperlink ref="L143" r:id="rId229" display="https://lh3.googleusercontent.com/p/AF1QipNHMSmoQ3Mz0HuXBHyyluwOb7LpNg9OVYR4W4mY=w408-h251-k-no"/>
-    <hyperlink ref="I144" r:id="rId230" display="http://www.cashifa-gadisa.es/"/>
-    <hyperlink ref="L144" r:id="rId231" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npIB6bJWKkKMqNp3Hmpwofu9eKsood6hwYmXa9tXfuwKOB0-7_dq1iKs-GvU_CCs2XEFTl0ihl5Le2nJLsilfYyDrm0oSDEGfaLTgq2InzDVyzP0DqiWFAF_BU9FeOABb5ofUHC=w426-h240-k-no"/>
-    <hyperlink ref="I145" r:id="rId232" display="https://www.elrosal.net/"/>
-    <hyperlink ref="L145" r:id="rId233" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrtwLjrA_OwtnNLzz2GYUDKRlaBklK82ugw7Fvf7ZOkXoekEm_6iRgAK4pzOW-EeCMhqU2X_y9D-bnivMasHdFPbtxdFS8-M_GVV6yE2LSDKGxR8bARUruRnArFUfe3Nob3ITVCfQ=w408-h306-k-no"/>
-    <hyperlink ref="L146" r:id="rId234" display="https://lh3.googleusercontent.com/p/AF1QipOPZy19YDLyu9N2Jb59b-scvzN5uYAY0zNvWMMA=w408-h544-k-no"/>
-    <hyperlink ref="L147" r:id="rId235" display="https://lh3.googleusercontent.com/p/AF1QipOf6__wDKBypGPoBfw5jFf9f83tlBsp68d7PTBG=w408-h405-k-no"/>
-    <hyperlink ref="L148" r:id="rId236" display="https://lh3.googleusercontent.com/p/AF1QipO9hflXayZkwXBCwua5NwwIzkblEYiqW1qhUM0=w408-h288-k-no"/>
-    <hyperlink ref="L149" r:id="rId237" display="https://lh3.googleusercontent.com/p/AF1QipO0cRnjNfHIUHFIIdFSPT7ROGpFgQ-fYVjLdnqA=w408-h577-k-no"/>
-    <hyperlink ref="I150" r:id="rId238" display="https://compostilla.com/carta/c_compostilla.pdf"/>
-    <hyperlink ref="L150" r:id="rId239" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nryS4MdW9BGHs9iStaJ2QeAKXezwMpyIvyBqSOfTzCfRTA_9lJQNN_u20WBd8MO9ad73KFRqmbdBfBWkQbB1qz3PavkmWP4VUlvYBNX6lBwHcVkTnsSur8qKLV6VlunC8ygDc5i=w408-h544-k-no"/>
-    <hyperlink ref="I151" r:id="rId240" display="https://elkingkong.com/"/>
-    <hyperlink ref="L151" r:id="rId241" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqtqiuUIvpKZmZ7BEcqkXqF09-mXwnyZYrV6MxXn6t8a7CjGfG8BL6E8HL7p73MjLxffZ1a1C3mKUw4UGaz4m8PyZLZCPxXS-UdJ0hlEnX_4TjADAf1I8kqGngWcr_fyqIckho=w408-h306-k-no"/>
-    <hyperlink ref="L152" r:id="rId242" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrxkp3AG8C4VuWrTZj4Pizq2YAeOoR3K9YdfnZyTslNrkw5nTFvyJIhTwGwxmtf1NYciUbeqeiY9STkbwd9iuKGGwl7vNXlgwOYbQecAx1KFtA-NQtA4f1fiCkUzu4z58U13dpj=w408-h305-k-no"/>
-    <hyperlink ref="L153" r:id="rId243" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no9P5yodjZXnyk_8XzcC-zRcA98Xw14Z5o8z0Hs_ytaObLZu54C0Fwqj7UhubAqPsokBbIYpVFXp5renh21C3GLHJiGC4Coi5ZNqcDTqykokrt20BBuKI_2ZtOcSvH8qUGcsze9=w408-h306-k-no"/>
-    <hyperlink ref="L154" r:id="rId244" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrOvQRnkX6-yrJEO2rQ3gpZJLND6ysTJCcHwa4gaGNFRWSDDMAsIpoGUOuybXblu7IYYP9lY3JpMOyWEmJnCpRNbYKx9pg7UTfBRhNjeNcIxvxN-NzhsKL9IFjInDtvQGJip25_=w408-h307-k-no"/>
-    <hyperlink ref="L155" r:id="rId245" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqfJQ48cKDZXg0ZxgFH3A0_EQYF5vxR3Ao7FDzi98a7Ej0BLsUiW3AV5O_l9TzOA2Po1ygd8434O4G0YKCEyGoNhFpWt3xHyYCKIsBaTHzVI3hXKW3PcEQWo0kQqJfZD9tG75af=w426-h240-k-no"/>
-    <hyperlink ref="L156" r:id="rId246" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq9yJ5bMicDvVTBq5yOkSCLJdkI46dCfuinAOUl_DiOfZBvubWm9HR6JJmid6GRp_bNaM0D510wsPH412y1G4BuEEqKom1zn56wo72ar1AuwZeZqd_F83DBHlz6ohtSYs4We9VD=w408-h544-k-no"/>
-    <hyperlink ref="L157" r:id="rId247" display="https://lh3.googleusercontent.com/p/AF1QipPFd9Cn4MWW6BYXQMZGxK1XjmL_lsSMXiG3XZ4_=w408-h306-k-no"/>
-    <hyperlink ref="I158" r:id="rId248" display="http://mesonvinotecalabodeguilla.multiespaciosweb.com/"/>
-    <hyperlink ref="L158" r:id="rId249" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npPIWUPHL4087tI16oKfVU-k6gH7yQjM6eJMYaWErON8TahEtk3lJTn2Xoig5r4SFEoGQ3E6N2P63Ri9vmfzM1DQfULMGBy31NBfGAs3oR39oKISz31GHRs8x42YbnyLCEcsHFnrQ=w408-h306-k-no"/>
-    <hyperlink ref="L159" r:id="rId250" display="https://lh3.googleusercontent.com/p/AF1QipMMtSbelnm9U8XrOWpvC-uuuNlmJHfhhMuI1zSn=w426-h240-k-no"/>
-    <hyperlink ref="I160" r:id="rId251" display="https://www.lamarmitaverde.com/"/>
-    <hyperlink ref="L160" r:id="rId252" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no3gZxu7m9C1KyMblBdYCaF9ilxYcCel84N_B-HVpHvhbWEoqKbNKnpsVR3hu1qwuIXNFYXDST94KA6K6zkBm4LfWYOz7Fmpuo-Rhh6CT5H6HB6gAB_EmROBoJuU9h48o4NlFUnVA=w408-h306-k-no"/>
-    <hyperlink ref="L161" r:id="rId253" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrbOjhLGs3S0RThnFoOAscfdl5GPbULxcQXM4nFBO56g_GNevTKdqS79FlVKRwCkgHJoVCxSYzBcSW114-h50piLw5O3oEY0aQbTXTa9tj1c0cQEUB30ZfNshpZ93ZjZZuM95S0=w408-h544-k-no"/>
-    <hyperlink ref="I162" r:id="rId254" display="https://www.instagram.com/s/aGlnaGxpZ2h0OjE3ODgwMDc2MzQ2Njc4MzE2?story_media_id=2861845481865926848_44415923018&amp;amp;igshid=YmMyMTA2M2Y="/>
-    <hyperlink ref="L162" r:id="rId255" display="https://lh3.googleusercontent.com/p/AF1QipOSxiAweLAmi2Tn7NDiDC3HYAmLPQqa01EKrSY5=w408-h306-k-no"/>
-    <hyperlink ref="I163" r:id="rId256" display="https://www.llaollaoweb.com/es"/>
-    <hyperlink ref="L163" r:id="rId257" display="https://lh3.googleusercontent.com/p/AF1QipPYJetLsMlMmfMywAAfVlUNK8HoRimalH6dyizL=w408-h408-k-no"/>
-    <hyperlink ref="L164" r:id="rId258" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npvS6GjNxIY4Z1FMrxOqQEx31mIvik39ycPLcaVQDqAnBsocVAuxfYFPbpCNHr3rwjuoMdQm3nLA1sYqauGEybP3iOlCAEGW_PVYyULLqkD1rcWK0iZw2sMzpduEtJ-EgIh117h=w408-h306-k-no"/>
-    <hyperlink ref="L165" r:id="rId259" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npYRxqxxqFcGsJ-JeJKsYoE8ro3WqWrezjodXOlfRIn65NujTSDsdgDaLquEQWjj3ysX5SEqkUn5mTj9L9nDOcKl3onSJLROFs5awtP39XKGBHvTcR48XgrQEhlapNc8LThxhEm2Q=w501-h240-k-no"/>
-    <hyperlink ref="I166" r:id="rId260" display="http://www.mercadona.es/"/>
-    <hyperlink ref="L166" r:id="rId261" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrhfkQTVrHtThwiPO8ov4NnPD3mmV08RTNq9luXSCSmzd22CYXPeGKm2gFu_JsXMHde96mGJKYhhLTqIrnHpzOITmGYpm-QCi7lff5IAtnPn6StVmPKIaxssPXzsmf74k-MY78tsg=w408-h328-k-no"/>
-    <hyperlink ref="I167" r:id="rId262" display="http://museojungle.es/"/>
-    <hyperlink ref="L167" r:id="rId263" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npVj4SbLD1nJFbhH3qJx0xhFODJxvwsFsRZ6zrqSSNgugQbr-xiikWFJ4JQ0bOissZC1_Iq-TaqVQY6-oZ41O_sAsvvqcC2XXP9lOq2njJapSs6eoL6ptWvThSLGR-9u9y391DVWA=w408-h305-k-no"/>
-    <hyperlink ref="I168" r:id="rId264" display="https://musiorestaurante.abastosponferrada.es/"/>
-    <hyperlink ref="L168" r:id="rId265" display="https://lh3.googleusercontent.com/p/AF1QipOB-DR8u5mTYJzbJ2vd1dhOFaLx7H5-wiFkATlh=w408-h272-k-no"/>
-    <hyperlink ref="I169" r:id="rId266" display="https://www.pradoplant.es/"/>
-    <hyperlink ref="L169" r:id="rId267" display="https://lh3.googleusercontent.com/p/AF1QipPaVGkPpDz44eVqY6LWn4M4vFuHd9kj91OAu4As=w408-h306-k-no"/>
-    <hyperlink ref="I170" r:id="rId268" display="https://www.restaurantealessandra.com/"/>
-    <hyperlink ref="L170" r:id="rId269" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npqT4-8nhM6WdAfh7j7KleYk83ijx5Bgo9ExTrDZwE63_BfZmB_WMrmPxE4mvrebwnWoxaJKQCMzcuA0sn90vzp6ZJhN3RQVmsa6WpXSkkPnW78HKL4LH4I-UShYC7AXB0BwRY=w426-h240-k-no"/>
-    <hyperlink ref="I171" r:id="rId270" display="https://www.restauranteessencia.es/es/"/>
-    <hyperlink ref="L171" r:id="rId271" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrHvm_LxPabHO0ReqO-GuEt8vD810lfAHE08-GwxJJtLVHh-aXw9tA6zq8fhp33QqBPfhglMlGMOmE_RhJzO-t5NK-qXJyx93B9YW9LxoxT8C1995EbLU5f01mEkaVMtsrVkt3Z=w426-h240-k-no"/>
-    <hyperlink ref="L172" r:id="rId272" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrQcv-M96D3rrhLQ7fPu_rbLts0P9UawATI1q3BP2elI6-v7Yb71j9oXSTiRIKkmprmP_EWr-WSOpWqY5866K-1Z9gCvo5RvOvCSBkl-CYS6TEUeF0G_sMItpUl35EDwbWbN2ss3A=w408-h306-k-no"/>
-    <hyperlink ref="I173" r:id="rId273" display="http://www.lascuadras.es/"/>
-    <hyperlink ref="L173" r:id="rId274" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nra_h0-cSIk7XbZnO7Osz9P02u_WiDjrWCqM_AcYO3H1Xm0aucQb_nvbklFviF_s20dUgoAC2IqXxm_6P2Zd0WarsoLrho7A-_1l9QjQSTFkkH9aMNjMBfsj7YSTualNO8w10EHew=w408-h306-k-no"/>
-    <hyperlink ref="L174" r:id="rId275" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4norK9ub27AIqxjI3LbxMqrhYPswFA8RHXpcefj0bFcB4ZZeiqiVpZZH3iULzrQ3upKSo0dlou8N2DZt-EkVBv1_kqxPgbo8h5q7pNDm6x0526BBpk4LosAmJgSDYeGqYR1dGw8E=w408-h305-k-no"/>
-    <hyperlink ref="L175" r:id="rId276" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=xaf5y3_sYpVycJQXnhMMCw&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=253.246&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="I176" r:id="rId277" display="http://www.rositamilagros.com/"/>
-    <hyperlink ref="L176" r:id="rId278" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqF66goOcHAe_cQ_G3z4SgoHOOtMHid8A_AJfsW3-zWaim-YUOqk9qCsbiGXppDDC39j7qoG4JkgTWD6A49pAEdH80GBoOJEs1JzSdJYSnn2Zbz0CGPDtckrdM9DM6wE1_P1Rok2Q=w426-h240-k-no"/>
-    <hyperlink ref="I177" r:id="rId279" display="https://www.sandraromeropatisserie.com/"/>
-    <hyperlink ref="L177" r:id="rId280" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrcxpY2y_dBwvm2Km-Q9JbI48ryUHGQYe5SmdbZj9S45bk58LRs3fvAuj-rVUAlTsOJ8p0SM2dbYdTe1VDO-mjdno3TxDD5Vhgfw0_0432kotTRfHn4qENQK9oJngVCp5Lu2DSF=w426-h240-k-no"/>
-    <hyperlink ref="I178" r:id="rId281" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
-    <hyperlink ref="L178" r:id="rId282" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr4cppsYkEb86BznSakda9zXel_Ib54Xe7DS1pcEO5fUzRytk5L2BIYVd_0mBi9i4ikL6BQ1EbenjawXmroDqptUP3pww-to_gQC1lkh6l3YC4NQAXuTdMe_ZdkOQAszeLcU85X=w408-h306-k-no"/>
-    <hyperlink ref="I179" r:id="rId283" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
-    <hyperlink ref="L179" r:id="rId284" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no_8UkpWrEdUfhQL6FultJfoPunbeLbvDfIRVQoXjBqsf5gnn8xK-yn16nU_xQe0il4kkR-nzuHLibrfXH55mIBeP_YpCN90DOL2hSs1ZXyWgDFtxShrtRbnYoUPs8tAvU7EmyquQ=w426-h240-k-no"/>
-    <hyperlink ref="I180" r:id="rId285" display="http://www.gadis.es/"/>
-    <hyperlink ref="L180" r:id="rId286" display="https://lh3.googleusercontent.com/p/AF1QipNfGFiNpvp8Dsw6vb0CgMHdz2GgxldTu-ftrr_f=w408-h306-k-no"/>
-    <hyperlink ref="I181" r:id="rId287" display="https://www.tedi.com/stores/8289/ES/Castilla-y-Le%C3%B3n/Ponferrada/Le%C3%B3n/Avenida-de-la-Constitucion-2"/>
-    <hyperlink ref="L181" r:id="rId288" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=LCWmIzir0Cm8Tx2x7qU3Sg&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=350.02115&amp;pitch=0&amp;thumbfov=100"/>
-    <hyperlink ref="L182" r:id="rId289" display="https://lh3.googleusercontent.com/p/AF1QipMCwt-9eW9CdoTWldrauJvT_XTOiyLsNOu8MCkl=w408-h306-k-no"/>
-    <hyperlink ref="I183" r:id="rId290" display="https://www.instagram.com/veztial.bar?igsh=MTZvZjAwcGptMnhrdg=="/>
-    <hyperlink ref="L183" r:id="rId291" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrWJLAUeYE5K4RrO_Y-o4iKI1z-SmOsjcoa3Xhqu1kRyrV46g5aC2iRCKX-aDEnjJDPTc9U_4SsNZxCYlP96LAu1nitI-BoO9D7kQOPgCqPBYVnrkl7eeJWQOD7pNehPhD6vYzY7A=w408-h506-k-no"/>
-    <hyperlink ref="I184" r:id="rId292" display="https://www.instagram.com/vinomioybotanico_ponferrada/"/>
-    <hyperlink ref="L184" r:id="rId293" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no2PA04XYt_MLVOYCHqV3--kbVHjKPVL1BQdpsd5WS4jl07oosKXrOLnAn9a_aQAkLHyk3U5UeRzU7kKfTruPulRWmyiuP_FeGqzDt-Nn_vYzGNhd6x9TFvF5Gc49sPGxWjwewFeA=w408-h306-k-no"/>
-    <hyperlink ref="L185" r:id="rId294" display="https://lh3.googleusercontent.com/p/AF1QipNgKqNOYsne8igd03cyMK9V_XpBEo2-GA1rsVuB=w426-h240-k-no"/>
-    <hyperlink ref="L186" r:id="rId295" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrvpk87IeZHSM3c1bsI0yMcUvHzOZR9cGmb0RtCiDgvkcaHc5_WVElIxTBSsXUkuCItg199ehLT6EXlf-qe7Pymmb1gwZFvf07cYsAzcwhU7_Nd2amwB0iB5C4mAkv1h9_9Yg2w=w408-h725-k-no"/>
-    <hyperlink ref="L187" r:id="rId296" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np4wdK53kWauJMbP7YY-TvvnaEY0i86B7zHF7ywe3lh6QIpy0fXtvMt9m3iefaOA8IJvFduQX18RBjuRT5xQ9hcZe3ssti3JVcP-HgqhOlZUQlcTUMNLg9EccIsAnc3Cr0wtDtt=w408-h306-k-no"/>
-    <hyperlink ref="I188" r:id="rId297" display="https://www.elregueromoro.com/"/>
-    <hyperlink ref="L188" r:id="rId298" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npyurJt7iKlwyn4jLJ70Kg0KtWTEwsnlRhR-ZSTEdPn6PJScV3rCTdc85pJFaUR9hFboAM7QuJAehwCbV_rxYrQfFsbo98Mxqv17s_vs4cH0746qN9mJSgnLmR0-E5PZGQrtvf5Qw=w408-h306-k-no"/>
-    <hyperlink ref="I189" r:id="rId299" display="http://www.amorino.com/es?utm_source=google&amp;amp;utm_medium=organic&amp;amp;utm_campaign=mybusiness-products"/>
-    <hyperlink ref="L189" r:id="rId300" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrl2_wvI26Rp2cawimq1OtJLtZzC34rT7UXayoWskM91a0C03nFwxJHvts2IEQkK1vSInglPZOoQSghlMVj78i5KiIebdiuakitcK30cZxVFsQHgUOspA14vPLk3I95ZCTzsrKP=w408-h544-k-no"/>
-    <hyperlink ref="I190" r:id="rId301" display="http://creperielarue.com/"/>
-    <hyperlink ref="L190" r:id="rId302" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrdg9Zx8wK1_5n3S0gWwi4is1CerNUJAa3ZzWORiPEIzKwiiLO9inYLDHu46r1mDyo5hCOb7xegGtvA5n9RQc5_lCjS6tBJDg3CmLLwwcgvT7hGbw19AU-1wx7RMWdwC7avlh1EQg=w408-h397-k-no"/>
-    <hyperlink ref="L191" r:id="rId303" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr1JgF-0xVudd54UK5OF--q56BxgIWEOYhXwbDTiVcBIJE6Ol2aWsEWFPwVHUbAWhnY4I99sShOQxXAKNwhrbevtD1Y0vtyguDBwRkFTKNGAY9s8EMhb9tgPyI8VLryF34mmBYY=w408-h306-k-no"/>
-    <hyperlink ref="L192" r:id="rId304" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nruH1tvpOpZPU85DLxIvaf-aDWdeYK-Vfe5osR_GautaSEQPUkJa1qcDBf2ts0ApgcAP1ZJqCtF4rQSTiAn-P6u3NVl9hEwkGWWRdHgOzO9tG3NitEUQbH0lmSIswxKVOxK9sKX=w408-h544-k-no"/>
-    <hyperlink ref="L193" r:id="rId305" display="https://lh3.googleusercontent.com/p/AF1QipPCISDmFzXxHl_yYZ6W7uuo5vDTbIGHpV-4R28i=w408-h408-k-no"/>
-    <hyperlink ref="L194" r:id="rId306" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np1HuCLPoq4nIKwKxQXQ5GByYzQXfLfh-LzuquNWdSTp6IZCv46KzkiBlANYVHKiv-R3rQxvrBMqrEXSL4yJCIi_l4Frkx5s6ac07sznyvoTFs41nwHSU4G3MVfD6PmgRqXYGg=w426-h240-k-no"/>
-    <hyperlink ref="L195" r:id="rId307" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4not4ZoEw9JEfcx29P_hphAYiJ-OCHU6-xO-r3bTwbK-BWqtS_H_E4KR7JpHdZMewB6e_esTTmTxWQkSZG6Hyc3JOR9vgM6xvP8E4u01dzKiPdRTjaVC1LmVM7iBc614XkegC0c=w408-h320-k-no"/>
-    <hyperlink ref="I196" r:id="rId308" display="http://www.lacreperie-easycrep.es/"/>
-    <hyperlink ref="L196" r:id="rId309" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqzop_f7WMpANEtOMjBjycVaDjxxzHFDm1a8Mtga5Sq_2mbVmOtdly8B3_lUEhNQwScFhulTvy7pAUb5WcyGXv3FFXfzw_dfsnbNk6dMoJKXdVZ1eKncUd4bjhlKOThgp2XN6Rn=w408-h544-k-no"/>
-    <hyperlink ref="I197" r:id="rId310" display="https://laminoterie.es/"/>
-    <hyperlink ref="L197" r:id="rId311" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npBUKVQlpXo_JCfASqMcdHSY4ZuAnnScshrb40NJNpkiBhmjV_XTD3_WbwrDmZyJHacOPqojma0T-ctR-xWXrCGXUjBA1UoHA3zfPSJsaXycXLBVzUYOP1bPJKx5VSCpjal7Zh0=w408-h306-k-no"/>
-    <hyperlink ref="I198" r:id="rId312" display="http://www.mademoiselle.es/"/>
-    <hyperlink ref="L198" r:id="rId313" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr3MqLMk5hJtHyWlnJ95p4umh-IsKKMaAyGYzP9PxeUd1O0mNGU3S4DZr8BSqYRjjEbGfIAT_4eqb_Od1jqLH-u_0fwOhCp_AbTHzogiwnNqKWBOEbUoJ6Xla3G_bPW2D0ZhaUp=w408-h306-k-no"/>
-    <hyperlink ref="I199" r:id="rId314" display="https://www.instagram.com/themimiscafe/"/>
-    <hyperlink ref="L199" r:id="rId315" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq0MlgWLjwT4eO3qDmOIPuFq8tuTOF-KKqnY0iOdKE4eeRXti3xfTVsSRQbE8ewgD6h0RL6UDyWCLCR-Aq8HpJZNYG2jrrUVCMFx0M20RGp0k2EuItdMCYEDjkv2B-BxueQNTAu=w408-h306-k-no"/>
-    <hyperlink ref="I200" r:id="rId316" display="http://misturaicecream.com/"/>
-    <hyperlink ref="L200" r:id="rId317" display="https://lh3.googleusercontent.com/p/AF1QipOnicJFO_cODl5L44dNveOn-OCPojFJtuvbUn2C=w408-h271-k-no"/>
-    <hyperlink ref="I201" r:id="rId318" display="http://misturaicecream.com/"/>
-    <hyperlink ref="L201" r:id="rId319" display="https://lh3.googleusercontent.com/p/AF1QipNjVO_Et8wtR2lSNZ3jwwRxDSVYXmguZTpTdBFQ=w408-h408-k-no"/>
-    <hyperlink ref="I202" r:id="rId320" display="https://preplacrepe.com/"/>
-    <hyperlink ref="L202" r:id="rId321" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnKUbMpUEmKx7GdOnQqCcqMECUhFACWBJGa8PjDs0Az72X8SSfGE_NjT-0Nuu4wBo2FBwaAFsHqiSVcTJXCb1x9i8JgVK-hZQ60op-GE6YjqoES_t362FTrNeTc2PUQldeT5UTSg=w408-h306-k-no"/>
-    <hyperlink ref="L203" r:id="rId322" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrz2Zn6h5Btx5SvL32rsDn9vTWTNeTDTSdVI3-nyrlLcoBoB69ZHLI2BTY_6gBWFaYTrve7epkepPGOkrKJ9zcGpp1l2LM1_QBQaTEnTYSdezP2bf9In0fuUSbUidV9mOfClDjjhQ=w408-h544-k-no"/>
-    <hyperlink ref="L204" r:id="rId323" display="https://lh3.googleusercontent.com/p/AF1QipN32KjgXZdZSCJ-tjTyREi7r2KZHRR2cE6cI3_x=w426-h240-k-no"/>
-    <hyperlink ref="L205" r:id="rId324" display="https://lh3.googleusercontent.com/p/AF1QipM9c7u_QV9vvu5GLJ_g7H739J3VgervLOvVuNAP=w408-h271-k-no"/>
-    <hyperlink ref="L206" r:id="rId325" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no5qbaLm1CIC6_WvC4ukWudPJWpQ6ykyNhWgf6Hf0pq-eUKDCfuzy3Q2QwoPmbBEbAidBEeJ3PthDBgynwkQZkNVM6Pjq0WHzzH60107r3Md7wF9uzJbP769TPggSbzy1uM8q4s=w408-h544-k-no"/>
-    <hyperlink ref="I207" r:id="rId326" display="https://cervecerialepetitprince.es/"/>
-    <hyperlink ref="L207" r:id="rId327" display="https://lh3.googleusercontent.com/p/AF1QipON8JWUVhDFjfljNv2MwKOYaKioKLWNWM8RfgD7=w408-h612-k-no"/>
-    <hyperlink ref="I208" r:id="rId328" display="http://www.segofre.es/"/>
-    <hyperlink ref="L208" r:id="rId329" display="https://lh3.googleusercontent.com/p/AF1QipNave18cGwbfYLoU41t2ga77-aNacLmNqZTPN_p=w408-h544-k-no"/>
-    <hyperlink ref="I209" r:id="rId330" display="https://acortar.link/hIpWMg"/>
-    <hyperlink ref="L209" r:id="rId331" display="https://lh3.googleusercontent.com/p/AF1QipN4YzRv5UIoFRMKb7AAk5kKAIWHW2IOfhhU2XOa=w900-h240-k-no"/>
-    <hyperlink ref="I210" r:id="rId332" display="http://ehvoilaexpress.es/"/>
-    <hyperlink ref="L210" r:id="rId333" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npfUyQULDXwxwUZ5oR3qOpoBVBHGnF8PUa2voIii0p6lXeckitX7FW_grL2CkkLSP48-QZPWEj0okWgFP8B3Noq-XguiGs3oIaaCDJnP7uXW-Ax0KlrR5pEc2MX3Hvoabg0d2U=w408-h306-k-no"/>
-    <hyperlink ref="I211" r:id="rId334" display="http://www.grupomoga.com/es/ferreti-rio-shopping-r8"/>
-    <hyperlink ref="L211" r:id="rId335" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npUr8dpZdCf58vBMX9ZIIVXq70cjRxt9nQcWK5Jl8JI0AYZ0PajAivYqbJSa7NBuzEor-Y7rIY6CxxU74M5U9hLf-Lz9aD3oeDcEsAw88OiqWQpCfqKsn1V61j35Ih77tRuJzk1vw=w408-h306-k-no"/>
-    <hyperlink ref="L212" r:id="rId336" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nquOTivqMXn7kUJC7L7zAyjVkUgjZQbrPJyxoTYWMVovF4kd0beBJzsQiJuAogKy6rEiKQu_YYDe30xJ4Ik23oQGN3mo2pHEEXOAZucpqFbDiN8rAYZFARy-JqIfGHAVxoFpV3loQ=w408-h384-k-no"/>
-    <hyperlink ref="I213" r:id="rId337" display="http://brest.es/"/>
-    <hyperlink ref="L213" r:id="rId338" display="https://lh3.googleusercontent.com/p/AF1QipOwv1MahP-mh0GH4_tgTsn9SkE0Od8bk-j0z3gD=w408-h306-k-no"/>
-    <hyperlink ref="I214" r:id="rId339" display="https://www.ehvoila.es/"/>
-    <hyperlink ref="L214" r:id="rId340" display="https://lh3.googleusercontent.com/p/AF1QipMrUC0rflOygetsNhz5uU5QJCd6E8hPxLbStN9d=w408-h272-k-no"/>
-    <hyperlink ref="L215" r:id="rId341" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqyeieYlY0952KydtiXENYPBFMq8lnwuYCALhpEMWAOPmDPRGathK-o6Ao_xiSsTTFNixKKhGl2G8yyz39wtPFkaRUCStVjmFWmJ_gRwNzXNqJmKWy1P-tMgLZdOitOKcRfZksN9g=w408-h306-k-no"/>
-    <hyperlink ref="I216" r:id="rId342" display="https://llaollaoweb.com/"/>
-    <hyperlink ref="L216" r:id="rId343" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nragb6tuDYxlUrSaP0R-2JbJOHWiZQrTXFNyl0olNfINfK3T-WhZV4SzPNuHFXZoHZxMQCeiiRq-GWjMSs1OlPpZ9ML5kq-29dH4OqgiOeKWESI807X6cR6z6-y21olI_3BvRbM=w408-h556-k-no"/>
-    <hyperlink ref="I217" r:id="rId344" display="https://www.llaollaoweb.com/es"/>
-    <hyperlink ref="L217" r:id="rId345" display="https://lh3.googleusercontent.com/p/AF1QipMRoo-cp3YbeVt5TAcRsYShFLmVHK0bRxYgZLda=w408-h408-k-no"/>
-    <hyperlink ref="L218" r:id="rId346" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqGAIszYrfC89pcq6NAibyY4BM3thQLySack6RUyIB76FW42EJByFXcBPfFnCZR2HZqURMFXP-gXZWPh-0-quZMOKeZWZPfRcOfGwd8urI381q7tNzHD51KPt-LYGQ6y-MYA-j_=w408-h305-k-no"/>
-    <hyperlink ref="I219" r:id="rId347" display="https://bit.ly/TuGofreCarta"/>
-    <hyperlink ref="L219" r:id="rId348" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqvoC4iqDrLljkrcHqXZI4zjBdnUBSG3Ti1_LKGhJ9-9gapPUBavFqqvD4-_cECkqQKaz351s0a-pcf-m-a3mh-_klq9SDnIQ2ZcJOX6EzBPh5QZQEWEEsWxCGN4tTxxTtqNtQVkw=w408-h544-k-no"/>
-    <hyperlink ref="L220" r:id="rId349" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqvMWWeeeqZd_VIoLjERmGw8r2l_saZurWiiGg13vaf5U-q_-hqKFDbjwmBTN-mAai0dcHtKM4tVHramhJp7sSbumBhVMGMMzeTmhu3LyBVtyEvabl8VM2O3xlFYic89Qj4DbI1=w408-h306-k-no"/>
+    <hyperlink ref="L56" r:id="rId98" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr6GrKsX4IrnDHX9XSIWN7h8nHIV2wUTxKya2GhISUCa9YfzmMUbZzkPbS_bjLev4f8ug0BZktYtN5nJPF4I3-hcvxTGMqeir7vG7RHRZkLiqEPxAvumJJogLOVm81Hdy4EjRS9VA=w426-h240-k-no"/>
+    <hyperlink ref="I57" r:id="rId99" display="https://focrep.com/"/>
+    <hyperlink ref="L57" r:id="rId100" display="https://lh3.googleusercontent.com/p/AF1QipNd1COWCIi2NLLzQC_mAqw9mVppjK-a_Xl5T5cv=w408-h246-k-no"/>
+    <hyperlink ref="L58" r:id="rId101" display="https://lh3.googleusercontent.com/p/AF1QipO3McgXBWZJp0-p9DjpHoEvChlTOP17jYYBwVEf=w408-h612-k-no"/>
+    <hyperlink ref="I59" r:id="rId102" display="https://instagram.com/acerogastrobar?igshid=YmMyMTA2M2Y="/>
+    <hyperlink ref="L59" r:id="rId103" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqY6niajDYwxB73UB_-lDx4egq-Ep_Z9hvALAktxVD_t-c1-XzFQ9z0ofvLFxD_cLrw-_NiwA2jM9V8O55cyytgKcSpL8Ivx_KOq4JMNi6_JV67XFH2KtH-35ri6cPOGebjrANg=w426-h240-k-no"/>
+    <hyperlink ref="I60" r:id="rId104" display="https://www.alcampo.es/empresa//tienda/carlos-iii?utm_campaign=gmb_%2Fempresa%2F%2Ftienda%2Fcarlos-iii&amp;amp;utm_content=%2Fempresa%2F%2Ftienda%2Fcarlos-iii&amp;amp;utm_medium=localoo&amp;amp;utm_source=google&amp;amp;utm_term=gmb_"/>
+    <hyperlink ref="L60" r:id="rId105" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq2IsfsxN9FTaHU3LCPxFMFfmamnWMvWw5Uk-QCCLxHiFkY1r4j-u0QGgOZYm_fU-L1UtfW4lRfVUpvElIaAyQohruevkduvM3toT0_50jN6UCwvjgpFqMj8qTOdQm9sYjPqXHd7Q=w426-h240-k-no"/>
+    <hyperlink ref="L61" r:id="rId106" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npsSIaogCQDUc1ASZFJrSgZIbhwmV5_Wo9-nAyqJtvc3ZD3IVhb917egLE06yUWDp5ExIO0WnSJAvunaenzAbiIE7OaNUG1CSbj0NQp24rzhYI6BX8_uFX6WL1xybAhWuCTA6ma=w426-h240-k-no"/>
+    <hyperlink ref="L62" r:id="rId107" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr5rsO_fFD8YeF4NOoMsLTrpMAxLYRl8FLLIQivcvnQ_XAJilrQK6ohxMJPaPp7ZH5HfqY4HbqOuTsxZrzOtpQb8e7bnpJS4jaJGqeYtIgjKSQua9HJ0207GsDI_lXAkk52c6hY=w408-h306-k-no"/>
+    <hyperlink ref="I63" r:id="rId108" display="https://carbonrestaurante.com/"/>
+    <hyperlink ref="L63" r:id="rId109" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npK5BPHaxMHyujkF5cJqaZwyt6ZyO01HMAal5JKD3wuDi046SZKX_cmENkX2dF7ehvASxE88A2BPwHp5Mm2Y60y_NKjy9ZjDi4QEH9BMvb2y106L5XQjQUvJ42jCAbc1jHQpsCc=w408-h306-k-no"/>
+    <hyperlink ref="L64" r:id="rId110" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noEx8I1JXqV1YwPeWBDG0Og58dnh76UCvKj7gSFZ-PUW-osvk5j7yBVGkfBGSPWdmN4CP-5PYgTQ9JxLOxHJ3HPuObIQ9Y96TKYnlkQMIJEC40nOtduMH_X1s5qY2BaaoUivxNxgw=w426-h240-k-no"/>
+    <hyperlink ref="I65" r:id="rId111" display="http://celedon.es/"/>
+    <hyperlink ref="L65" r:id="rId112" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npfnBykSHah6AIKMXFYSMBU5nugzaPpCCwkDDRQvvpGbF6aPCLcBwfRrnI4SRIhSTVhyPtr6873V1FqM-GpoEqobCYipxmygRzbF8jDg5jMA4UY29_g9dZ4DpQyv8ehd58WVSMi=w408-h544-k-no"/>
+    <hyperlink ref="L66" r:id="rId113" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqccHi-1IQuQKy1umjkcYS1TTyjXCgMWDSwJVBXfnOZZ59FhLHklNDrl7x8bFlzqac4qalmQw3JnSLHsdW-ecd-wiht9czcI9nU7-Ff9D-y4xIkYItKBc7asLrqLhRbL_3lPFBM=w426-h240-k-no"/>
+    <hyperlink ref="I67" r:id="rId114" display="http://www.eroski.es/"/>
+    <hyperlink ref="L67" r:id="rId115" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqn--AVuUZwlRs2APteqP1UDKhtB4Bb6RbCnF_WM5PNp_wF8iMtaugBNh2c2PfwtTe3vM7e_a_2MKLAwhzsRxopuHxKbt94ex8xGwtj9DKx37h_LaH76ZOB7Enuotmfu2KRUEnZBg=w408-h725-k-no"/>
+    <hyperlink ref="I68" r:id="rId116" display="http://www.gmcash.es/"/>
+    <hyperlink ref="L68" r:id="rId117" display="https://lh3.googleusercontent.com/p/AF1QipN0L4t6OGUCZJ8iRMJQT8lXkFv2CAyiKNO3TKOQ=w408-h272-k-no"/>
+    <hyperlink ref="L69" r:id="rId118" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=kjmmtjtgfgIf1fi7tViGtA&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=142.38246&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="L70" r:id="rId119" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqW01_6bBqjd2DLzkJHhCfo-x9WncuW1lMIlRoxqFBTtCMLGCQ6J8nUupYiKIWDXXzymi_YT4krQepcmVGo1GuDPF0-ga2YNRDZ8qOxv5l9zmyiMU8DdtfUl0wuA7KpzhP-fiqD=w521-h240-k-no"/>
+    <hyperlink ref="I71" r:id="rId120" display="http://www.e-leclerc.es/tiendas/miranda-de-ebro"/>
+    <hyperlink ref="L71" r:id="rId121" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nojiVEqwVdC3b7R4Lmnqj6Wa2tyaXPzGEVLQY4h8Wlzz6bTMtlu3WIWZkN09uA7W-8RK75zf4bD272Zkg5B5TrebWkTLmdAoM4YjADDsGkSLsmy6P0IJ7dqnYEAOSu6QicU0DXspQ=w426-h240-k-no"/>
+    <hyperlink ref="L72" r:id="rId122" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nodQebv6rXkyPG5Q2WWvhe-1l74Cb4R4egmrcD4nDpTrHtTNMg4MzzjEqioyC8mXVt5g-vrlfn_xPS0bpypOBAmZznOm_fI2og-yo7LvQ9xNfg-NLuGWMgjRCKQnjNrHeSpX0FDzQ=w426-h240-k-no"/>
+    <hyperlink ref="I73" r:id="rId123" display="https://www.sercotelhoteles.com/es/hotel-ciudad-de-miranda"/>
+    <hyperlink ref="L73" r:id="rId124" display="https://lh3.googleusercontent.com/p/AF1QipPY_smtgl5NqvYw3vBTRy8Y_82i7ZvMu2eGsxh2=w408-h271-k-no"/>
+    <hyperlink ref="I74" r:id="rId125" display="http://www.hoteltudanca.com/"/>
+    <hyperlink ref="L74" r:id="rId126" display="https://lh3.googleusercontent.com/gps-proxy/ALd4DhFQadoVcD3xDpPylq-jLTh0LNZYHi8RCQcuX1Oo7U-ACilEdkOdvaF1vNp_gxuNZT9idKBO5UmcuDgwmeiEUKotG487X0LLxMDHRe8bwAiQlZorZB-qAz_ha1kpxaDB4mbu98qUXSFKGxYVUsCq7yuIY7-PcwQCrEuUIupfoensWSWUWNlvNHc8=w408-h272-k-no"/>
+    <hyperlink ref="L75" r:id="rId127" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=ZODIvmaR8Blg9PKgRIG2Wg&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=327.549&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="L76" r:id="rId128" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq4ssw87UalxtigiLAE2Gev4JVTDsiiULEt8Htm5tpLMfa5054kwhmHvTqS5UeP419wqc2aWi8VCD6RCx_u8FWqe8Z2oe42sN8aKXjrVbAe5-h7UUyS3Qd7SZ3NHTkFKpU5L9eh=w408-h544-k-no"/>
+    <hyperlink ref="I77" r:id="rId129" display="https://www.lidl.es/"/>
+    <hyperlink ref="L77" r:id="rId130" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrTxiyBcmUUfzwQRYE_SoY_dBmTLFa1OpT_rE3yrHcldgogOGQXY2pGrCb7hhlop0EMyJJfYSF0pLCXKGE_JTr664BorayMfD-8NH-aGhnNMiuFYOHtnriRA3a_kKPqpUijHm5zhw=w408-h306-k-no"/>
+    <hyperlink ref="I78" r:id="rId131" display="http://lupa.com/"/>
+    <hyperlink ref="L78" r:id="rId132" display="https://lh3.googleusercontent.com/p/AF1QipMP3qA15SBYDl6WUJWP8ygi2Rx3kbHINLH-Pw4G=w408-h306-k-no"/>
+    <hyperlink ref="I79" r:id="rId133" display="https://www.mercadona.es/"/>
+    <hyperlink ref="L79" r:id="rId134" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npva-ugwO8i55ZbBrplvDfeFsVJYyWYkbQBkoXN0al22oLSrPpXqVucTup3wzYqATnO42RvIBnjWwk8HD7YqmChhhDVsRQH7jbC1LUEjuGTjCR0mzyZ7UUIJWHPu7w-PoaShn1s=w408-h305-k-no"/>
+    <hyperlink ref="L80" r:id="rId135" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npb2ck_bpLvhrKnmYC7csSxvm6EeZBWaBU3Qj6fdIVgIaabmC1QbVq4GCaUzrpHKEb6fVb8RQl_tzH1jKZHxY7dqb0zjK9S89JQqL0vwzUy8EPBzgR6MuaNE71aiyJv216dql4=w408-h306-k-no"/>
+    <hyperlink ref="L81" r:id="rId136" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nozGcRDoPn7FEOokadeTgplZaD44VNT8m0xwwgB353Lq7zwZxfehZs_v6Sm5cGPuz0zS6CgKAigVHngtyQJvkw1V7P2KQ6Kp-Rf9_DL2ALRAi0xNZFiGuN72wC7YAnrncPXHbUO=w408-h306-k-no"/>
+    <hyperlink ref="L82" r:id="rId137" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npPrBMIRMJdyEtH3Ye20_QQpxK-nIWPn1hCfXbNscX7BLz4jPCp4qOGUejt-8Y5vgSnOiUgPLgfjPRphVmxT-cn8_FqypArCOKhqwr5XiC0RYLMGGzkDjMNSaFFRDsZHVelhhZYGg=w408-h306-k-no"/>
+    <hyperlink ref="I83" r:id="rId138" display="https://www.la-roca.es/mercado"/>
+    <hyperlink ref="L83" r:id="rId139" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqrLsoqMTo4081qVex8TwV_LwRuAeKMcQkkToW8nceodqcjH_ic9foEydZqrUh5eosumdToujWueaOWk6Pyx14clsan8gt47lQVsJRq-99sZCos9VH-r3bX3ASFrnw0G1L9S58xYg=w408-h252-k-no"/>
+    <hyperlink ref="I84" r:id="rId140" display="http://suite.cafe/"/>
+    <hyperlink ref="L84" r:id="rId141" display="https://lh3.googleusercontent.com/p/AF1QipPRQrGe8ZIFiu-vhojN6hSEd_d1az1oTRNS0rim=w426-h240-k-no"/>
+    <hyperlink ref="I85" r:id="rId142" display="https://www.tedi.com/stores/8166/ES/Castilla-y-Le%C3%B3n/Miranda-de-Ebro/Burgos/Calle-Arenal-71"/>
+    <hyperlink ref="L85" r:id="rId143" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nosOVbySKnLFLsBkMUQuym3hZJWLKeu-R1KyDzqcuEvJhr226N-n0ZGUJ4TGSIN7Ug5vomKbSj4LauqD_NR45jvR7tZkXl4keOGM5YotbSRnvNuWJ4oO_juWuMWCABfwsDhu_A=w408-h600-k-no"/>
+    <hyperlink ref="I86" r:id="rId144" display="http://restaurantetombola.com/"/>
+    <hyperlink ref="L86" r:id="rId145" display="https://lh3.googleusercontent.com/p/AF1QipP3mUvmd_0ZDLbijF-GqSld3-8dwZfVYiBTtXCr=w408-h306-k-no"/>
+    <hyperlink ref="L87" r:id="rId146" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrq0H_O9_813fPE-fJKcYyyGzjjmJGyqgWbQtrda3oqpkza1oYjufmIwxnkP5cP_P-dKsf7ofke5Kr_6OFJpoxQydoJ41tSR_yJavEf9EfdM8Yoo53w9BN51CnBxhxGZ3NTRs-s=w408-h306-k-no"/>
+    <hyperlink ref="L88" r:id="rId147" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnEbHc8oLJ6FutAkDS-5rSc5DlIqNKRSVdFGnUPVuWgBspyA_EoYxrifgyxv9Hr9pY-m_3aFVCFg8JIHkjS9XA8EE8zL0xvv1m02yF8Y02JvBrV08Dcx_m2ENsB87V18TLynU=w408-h544-k-no"/>
+    <hyperlink ref="L89" r:id="rId148" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqfQhaYg7Tpy8sptXi_XY2MPNuv4TlfIieH6BgkZdEKrM6PDtnGTgkrwNSg9vHZrUPQQpnOxG4SRCxGBu_DF2C272Rm_MDg_vh-QTVXfxydUFs5-dtllikyN3YuUIMjBSUbwwpI=w408-h544-k-no"/>
+    <hyperlink ref="I90" r:id="rId149" display="https://www.breizhcafe.com/"/>
+    <hyperlink ref="L90" r:id="rId150" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrl5-NkExeNm0h9495rx7anE2jB_5x7inCRYI5FvqcPy5ygjhqPfHJX4d4xyS-iC4th_-99XLJkWmlL9JRvXV3V3Bf0mQCnIE8BwNGrolhrHXzLyR9W4jGL2Xgc9Hwc99we7JUXhA=w408-h306-k-no"/>
+    <hyperlink ref="L91" r:id="rId151" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrE7bvrT1eAaEuRqRlL14YYsQhXaCVf09xly5BuxoAcHWGnUPlFJH40Y1vUrnCdSbELkKHirCwxDHxI6j-mSXQRhSIquJZ2nM78Yp-GO6sr5M7N6HtNuZTxaiPNcKFRaxa6e_PUXg=w408-h544-k-no"/>
+    <hyperlink ref="I92" r:id="rId152" display="http://creperiebretonne.com/"/>
+    <hyperlink ref="L92" r:id="rId153" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nohBLW2wzdMB385nK0T49nDBomeaZusGLO--ec0JmnTuP07QchOSRgA_KBZh-dfaa8VyQ1a5LcSv8IyTNLX3B3W9ukZhh1MoYfXY8eNendoOT0CmMnS2mJLxImR8tLDw65Q24mnYg=w426-h240-k-no"/>
+    <hyperlink ref="I93" r:id="rId154" display="http://www.lavedetterestaurant.com/"/>
+    <hyperlink ref="L93" r:id="rId155" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npg5m-q98vsM9YvuKP0qJtt9M9hdmCT7i0hOoA9CejTOM5FAY3LxKTGY6jR59cbZl4lDdMjGFusVDFNtnruNonieZ--6CoFBnN1FJEvAet73880HCS9hdU6G8qeSU3_V9yPSGpZ=w426-h240-k-no"/>
+    <hyperlink ref="I94" r:id="rId156" display="https://www.familiaonline.es/"/>
+    <hyperlink ref="L94" r:id="rId157" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrJ92lFyiiiINGNxL5fQLqfzB7Ns3PoloEY3vhWcNT_1Z-1uQISGCgTlSUQW396PsJ-mtN2ht6J1CCI_m6lLicwEA1rFGsglS6gQTex8YncG2xGpmF2AK_QqStwERg2NJlOmtm_=w493-h240-k-no"/>
+    <hyperlink ref="L95" r:id="rId158" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnAMLbXUr3sb2YJUr19ihNInMmRwYwqtsaXM9bo-h9pAu7CzuOoeqRr192WCCop6raE0xXgO3UAfzMvDrc2sisIR-SsX6GMSLrYsesItbPCfl4727YlzM-WewKMzi0XoNX5u6_Qg=w426-h240-k-no"/>
+    <hyperlink ref="L96" r:id="rId159" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nol-yi4BYX65BDighrQpeiP0MUtSwQs3tyGLgC_Biqf6p8mlyowEHoCcnDJTIHi0iBzRRcAlhx0JGab-ndk4udPKfsZjqHwYSB6eLbE0zWQ3HFQE9xsUvxUhjhYTNMY2OkOZCDQ=w426-h240-k-no"/>
+    <hyperlink ref="L97" r:id="rId160" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrCt5hMAT6wiNkdWo0N8z2WzMsLXzg3qZXOxYLg1motfpCUHnCXfLtWxJY5SWSd1QkFT1izc6JPR1kqhME42Q9H6p0NlbPHFrFdWNkSib7fNmU7haClU4bFGX4KoMl7OperWeZOhQ=w426-h240-k-no"/>
+    <hyperlink ref="L98" r:id="rId161" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npUIzmfQNhRyFWbQtbIa9vzaSS1TZwqGl2CFyx5mf_5RrBdeG94IsvPB7GgVG0x3aEcL71QVcprMPKcef8e2QyLint6I_JN9bBfhG3LBsBpt0JXZSx_xr6ArmGZw6wTszg-bJmM=w408-h306-k-no"/>
+    <hyperlink ref="I99" r:id="rId162" display="https://merles.es/"/>
+    <hyperlink ref="L99" r:id="rId163" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noZ172KZBZmIqBNOx6dDgmzQ-mFS4QOoYUzrs9muYm6WOEp_9bRnHX6gtQmefeUd1qDPy0xTLXsRdC-3NQgyWdG3tCY58hM0p3M-kIRtGok878o51t4bSbH80h_dD7Vr9JNs8j8NA=w408-h272-k-no"/>
+    <hyperlink ref="L100" r:id="rId164" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrMxL8vXJfoIY9YG1ZPRdY7zEoTbbgBPe7bRZbtW-QhN6HYjhctFCXX52Oap2hmFBRrvWlyFtO4lKmMA2y9JfXYaHDgO6eNCJzAQxvqgq6VaGhZkL3lqHyY_ZC6vJF8ErHIlF75=w408-h544-k-no"/>
+    <hyperlink ref="L101" r:id="rId165" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrYOB04W_B73fGyslBuqb6bRHA-nAlpnfkrWqse2rrNxxGAaTT-uW-RfqJWWeoTS_e0RhHpSydZ806TK87fx-siY6kOoy39x6IMrMdLAvBFsrPJsyRSwlc9WngxwhaoL5SQIcc=w408-h306-k-no"/>
+    <hyperlink ref="L102" r:id="rId166" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrQ2hD5ZFg5R1QiD8jrR_8t4S48ntfesfjdNw1eMR_nRtnIjGXkXr1GQyxtMnrUBCV6nj8csUEzL5mu3PMX4jhRuS-IGMR_By5W4vAyqZPOYBZ64DxZN15HyqmuzBs7PDRAX2hv=w408-h334-k-no"/>
+    <hyperlink ref="I103" r:id="rId167" display="http://www.gaudihotel.es/"/>
+    <hyperlink ref="L103" r:id="rId168" display="https://lh3.googleusercontent.com/p/AF1QipOW-Jdz0gRwIdoguAnh2nBJym1YUXiCYTo--gJr=w408-h281-k-no"/>
+    <hyperlink ref="L104" r:id="rId169" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrgpkHL3JsYqCuY1j_G_sHuHr2CjL79c1K6FM_0hITDs4jEP2Cm8wDohNYpCe-obWqSssHUnBkmEBpe4uQ0a-qlsER4yq5xv5aH1yBPdx2E9_nef_xuD1A1f122-yI9Iziww5tXxQ=w408-h544-k-no"/>
+    <hyperlink ref="I105" r:id="rId170" display="https://www.mercadona.es/"/>
+    <hyperlink ref="L105" r:id="rId171" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np5vgXpn2zgYgvIs_LKxtSXB2unG-4Yl_ZzV-33FH3XuVXopKSBTGfarOh70_ZT_jzhTm9L8IeRf3XoN4QkuCS6awhyxLuJyYG7O3Jn9pg7nfru0LY5QQ8bIyjhmvF6rIFocwM=w493-h240-k-no"/>
+    <hyperlink ref="I106" r:id="rId172" display="http://www.restaurantelapeseta.com/"/>
+    <hyperlink ref="L106" r:id="rId173" display="https://lh3.googleusercontent.com/p/AF1QipO3E_3Am5IsvfbFQ7RatMSxYTqxf9nROxno2nwM=w408-h270-k-no"/>
+    <hyperlink ref="L107" r:id="rId174" display="https://lh3.googleusercontent.com/p/AF1QipPLixQMt39bJGqM3zh4MsKfK98JFyuQE5uw-a0P=w408-h544-k-no"/>
+    <hyperlink ref="I108" r:id="rId175" display="https://casamaragata.com/"/>
+    <hyperlink ref="L108" r:id="rId176" display="https://lh3.googleusercontent.com/p/AF1QipPrPBomWGid8vebC9kyGCSJDjO7X7fCBQCM0AeN=w408-h272-k-no"/>
+    <hyperlink ref="I109" r:id="rId177" display="http://www.casamaragata.com/"/>
+    <hyperlink ref="L109" r:id="rId178" display="https://lh3.googleusercontent.com/p/AF1QipMknFFSJYWrCGVouWVy3gXYb1C_HqK1YL9mKNaM=w408-h272-k-no"/>
+    <hyperlink ref="L110" r:id="rId179" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr_X8bKAsnU_zRgMCpugc6Qr5X4GC6DIMU2IROZAVBdxeNmBXlmjOvFmIGtsSzOxnLVnDYvR3ZlzH9FnGjWIWJOC2-2K_4LRGPJzupUT3FFDmWotNAePZWGNhP0cJY-ML8HgG0p=w426-h240-k-no"/>
+    <hyperlink ref="L111" r:id="rId180" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no2VChIB3TO9pjn0rkFBalwUqiBjw5J4XBNs9ziJ6Rt7uWBrOPPcyYOMZlh-aa_YfpMic9gIjrMlv3XQycdzumUjtLeNFlfSHZ7N393epyOJ6warmZjfF6kydxYMeAgmQT665g=w426-h240-k-no"/>
+    <hyperlink ref="I112" r:id="rId181" display="https://www.tandemastorga.com/"/>
+    <hyperlink ref="L112" r:id="rId182" display="https://lh3.googleusercontent.com/p/AF1QipMcERdKt8lfntfOgG1l9RJOQdvpMOYa9qObJyaW=w408-h544-k-no"/>
+    <hyperlink ref="L113" r:id="rId183" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrb6EmS_lAVhRFqtzIQ_Lj6PfqGCgHWZdNJ56II9dgxZtM-5lRr3K9ox7-ntN_7TCjh6iyHDhjJUwJModqtbaa0jWXpX8isGugcvkLvcFsB3CXoIMdp0p88XlESfmhniFX8-Saw=w408-h544-k-no"/>
+    <hyperlink ref="I114" r:id="rId184" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
+    <hyperlink ref="L114" r:id="rId185" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq8SJHILsdd7DKM5qwl1c3imqgYVEtA5GBEvTiOSu8HqhIalqYyXPueIINeAdUUpCaNMalE5h5IRAgZPqGohJS5htczIir6tfk6wehkNgoxYnqhJ07YlJu19ZwnZfVlOmsl1YPF8Q=w408-h306-k-no"/>
+    <hyperlink ref="I115" r:id="rId186" display="http://www.dia.es/compra-online/"/>
+    <hyperlink ref="L115" r:id="rId187" display="https://lh3.googleusercontent.com/p/AF1QipN6-p3ELnxXKXSXcE-puzH0tzQFa4mrF_LffWUV=w408-h306-k-no"/>
+    <hyperlink ref="I116" r:id="rId188" display="http://www.gadis.es/"/>
+    <hyperlink ref="L116" r:id="rId189" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npCj-UGPZasT_wo5QnGA6d_ekSTePIY0DTZdYWa1g4cIh5dSROh_XgAJElpiXuEio8d_IZTQgaHBHv70gdYa-NcxU9qugw28UN0ftvXnV6Twhvv3qbjVpfn3VsPT8kKXBm0G6w6=w533-h240-k-no"/>
+    <hyperlink ref="L117" r:id="rId190" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqCQLq0pRPlXsj8Vc-V9EwHEz_JDHwRzmFR6lErpAvUvYafagexVS66WtnczqNrBpW8tWYyg_S57CpF6u2m38-lEDF8zv7jHNs784VhX1j5lxUORMnEIMfRnX24E03lqfOnyVxR=w408-h306-k-no"/>
+    <hyperlink ref="L118" r:id="rId191" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrTcNaa3F9hN1uXhvcLJox6V9w3UrBVipiX2ANXVitLkI9-h84Jd6sTc960G0s_rNPnm3qrrNh_n2OMh7THqXzLKGsUGIy080absbCTyrx8cx4r56-xr4fDe8qrGxJssgMvcnNTvA=w408-h306-k-no"/>
+    <hyperlink ref="I119" r:id="rId192" display="https://restauranteelbayo.com/"/>
+    <hyperlink ref="L119" r:id="rId193" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq6QvCYl1wjhIkXOuZKLTCOCuhprTHwvxLcKls5CzlcGezInNvQmXVC-8oJU05ry-gzHJW7qWeNai6eDHdns9JLtFJYkmIXSIKRKEd4nPPO8Mkdjhgsx77mLphACt7a59-_ZLDN0w=w426-h240-k-no"/>
+    <hyperlink ref="L120" r:id="rId194" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noPYTbmUXvWInYdiP3CNnLtfi1A04RKFpFlU-TG0m43ETaHt9szCblvar5nqtbvYKaJPrUZd_SP6rNwsjbn2B5ZKqrnhwcvdt0MtlgIkErserIK1USAxQOmH0pXbS18UKPyOC4l=w408-h612-k-no"/>
+    <hyperlink ref="L121" r:id="rId195" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqJpv9Kz8j24IZBb9aOhQ_u6vXDk7EhRB6IhStIZBYYvQgP-LYE8GS8U92nAaaOEv0aBhGrTGsDTUSKah9G0Nidn-Oyy0sBNA2HTZz91Lld7V9Trsekank71MVVCRlrhd1p2-jRkA=w425-h240-k-no"/>
+    <hyperlink ref="I122" r:id="rId196" display="http://holycow.es/"/>
+    <hyperlink ref="L122" r:id="rId197" display="https://lh3.googleusercontent.com/p/AF1QipPFmbRRJ0UDuy28FwArGkij49TNG6saGK7ejiDt=w408-h304-k-no"/>
+    <hyperlink ref="I123" r:id="rId198" display="http://www.lioncrep.com/"/>
+    <hyperlink ref="L123" r:id="rId199" display="https://lh3.googleusercontent.com/p/AF1QipNRdEo584NodKS8LW2soYD8k7Y-IAC3MVR_zU-l=w408-h306-k-no"/>
+    <hyperlink ref="I124" r:id="rId200" display="http://www.lioncrep.com/"/>
+    <hyperlink ref="L124" r:id="rId201" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npscPR1winlLWRzX-SPJRttWkEs3vY8zTouSmhbNc2P2Vbo8A1RqCX2yJcgGtf2oBRiH_xh6QjPryC-iRsRN3Nl6qrz3Dkpt20Xj6HEBj6XzgZQbSmo_a683MM7AB2fVnikcnwd=w408-h306-k-no"/>
+    <hyperlink ref="L125" r:id="rId202" display="https://lh3.googleusercontent.com/p/AF1QipMaS6kWYbDQ-vGpCLkJZTna7vMYp_obUC4sP_5v=w408-h306-k-no"/>
+    <hyperlink ref="I126" r:id="rId203" display="https://7sillas.es/"/>
+    <hyperlink ref="L126" r:id="rId204" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrAZK_rGClKux5JxGGcTrFCJ9sF4p393KrSeOvkYzxtB-ktSCQoL5TAsTdOWWE_ek9fFZ4jpJBy4ElMjOF-bgwIZnuL3jSsVanxJwrBYl8OKNrktUbnxtC5UPIWZqR7ZdXEczA=w408-h306-k-no"/>
+    <hyperlink ref="I127" r:id="rId205" display="https://www.agoraponferrada.es/"/>
+    <hyperlink ref="L127" r:id="rId206" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noTAqlPlwvSmJQvgJ91qCU8cqdTQoFuXxM8Hlmq4BdJB-itvscTBYUqXkYip9kOvASrXWx080XdudScDfvwj61rhGgbR50BytS_6oUEXubusuVdRyZt1UkFIHsdz1xVG7EkFEpm=w426-h240-k-no"/>
+    <hyperlink ref="I128" r:id="rId207" display="http://www.aldiroficinas.es/"/>
+    <hyperlink ref="L128" r:id="rId208" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npTXSsEhTC6ZzAU2vRM0rqF8lIu9GUXotR_-uA-UMtTHEpiEIetSxGbZdJMx0GKJmxq4FdML4h6ssWHNBAxvAlHWWaVprJmgkm94ye5teFQsj1CSoMxjvrdvAJTX1vNQcoWQApd=w408-h725-k-no"/>
+    <hyperlink ref="L129" r:id="rId209" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noeczMlBi6VoI1et8JMRlGGUcGQDjJBgx8h8s4gd7PkdPZhg9xzEgUKjafwHtgShLdnnV58CHMsU1Cjzku7bYwvmmrwU58PSI46jCRE_CKV0wIjmwYBnsUIr3KjK5DTUl7KpJUg=w408-h481-k-no"/>
+    <hyperlink ref="I130" r:id="rId210" display="https://arcodelcenador.wixsite.com/arco"/>
+    <hyperlink ref="L130" r:id="rId211" display="https://lh3.googleusercontent.com/p/AF1QipPg7T9njzXdqBAblkcFFV7zpEPKb2w2l_fhsZz6=w408-h272-k-no"/>
+    <hyperlink ref="I131" r:id="rId212" display="http://www.astiarraga.es/"/>
+    <hyperlink ref="L131" r:id="rId213" display="https://lh3.googleusercontent.com/p/AF1QipMdOJLEuz1sFTaLohwcg3ahpn1moKzbXtGzZYbB=w408-h266-k-no"/>
+    <hyperlink ref="I132" r:id="rId214" display="https://www.familiaonline.es/"/>
+    <hyperlink ref="L132" r:id="rId215" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrPPN5VyEMWFvpUWtvHgZuRjQid19zDJh0XC6Kpialy-QCEIbHadpEqUpD1XUOmqMq_U2h7kTT7PIfpF3k5RsakDMMFlz2Ameg3T_w8u2RHJ5t548rI8BExJZ4xdCDfh42HgWg=w408-h303-k-no"/>
+    <hyperlink ref="L133" r:id="rId216" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=I2qJFJXi38gRJsmQJ-kj6Q&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=307.1283&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="L134" r:id="rId217" display="https://lh3.googleusercontent.com/p/AF1QipMNVMDX6J7UEmi1MYlL4DrnIdYMOsoDs4HCHSuf=w408-h306-k-no"/>
+    <hyperlink ref="L135" r:id="rId218" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=ysUOwA_LvMXjx1NAHSte1Q&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=206.20602&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="I136" r:id="rId219" display="http://www.bierzosabor.es/"/>
+    <hyperlink ref="L136" r:id="rId220" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4noR7v6u_DiFEFEkHHcB0WRGVTPAR2lg9mkVyN0FXZQG33INvHWzinUNRmYcbDCOXmSGvElDUxBi8Vz838brYCWcrTDrzKHFUoXyZhAeA3T2sGHS7NDxwwEzb-BU63cqyieI4rU=w426-h240-k-no"/>
+    <hyperlink ref="I137" r:id="rId221" display="http://www.bricolor.es/"/>
+    <hyperlink ref="L137" r:id="rId222" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrXfLaOMnZJ6yH4kUOX9zSs2PBzRTnVDRUfhmsaB2FMHlOw6-C8mBCpdRTmMnaXkQZPLlpu9yhugU1869dnzKG59uF092Unkfc-DqyxH-OFxaO8KOT8k0bO-D1aWjmyQHCpxDk=w408-h544-k-no"/>
+    <hyperlink ref="L138" r:id="rId223" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqJtI30bqOJlC3Wl_t623Y70TFPRjKWXA3eFqP2Dp0thKsl1z6yHvs6rr0tr3kU7P3Bs6qjczZ9XWpXcttRCUASs_psk-W1ihuKExADt5k8O-4NKVBSVodO2f0_-AhyF1BcYR46Hg=w408-h306-k-no"/>
+    <hyperlink ref="L139" r:id="rId224" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqOQ06dHU7tguu3O8LJ1iBT_nELibswglNySPvw1B5T13FcG0qexl9Rr-xDzo8cqZwaDdBS8ssPylF5lfx1qngM-ECnA-OGoM6wU1tnlB7PHZgf0YU6IwZxf3J6iJU1rQtsd3A=w408-h510-k-no"/>
+    <hyperlink ref="I140" r:id="rId225" display="https://www.cantinamariachi.com/"/>
+    <hyperlink ref="L140" r:id="rId226" display="https://lh3.googleusercontent.com/p/AF1QipMglaI-tGEkwlEcboyZ6S632xw0AQ0u2Fo4g7Wz=w408-h408-k-no"/>
+    <hyperlink ref="L141" r:id="rId227" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nopQ-HLD-DXkihUFlLkMStUq3Qo4ZbAB_fSrIWXbkGmwfGsllXULOs85oS6Zq--8fEt74BdLhbvSAi-Ad7bcfiVfU5pdMavmKowZowvUn5MS1YJRXnnCJiTcxa40k_BKUWh4LGz=w426-h240-k-no"/>
+    <hyperlink ref="L142" r:id="rId228" display="https://lh3.googleusercontent.com/p/AF1QipNHMSmoQ3Mz0HuXBHyyluwOb7LpNg9OVYR4W4mY=w408-h251-k-no"/>
+    <hyperlink ref="I143" r:id="rId229" display="http://www.cashifa-gadisa.es/"/>
+    <hyperlink ref="L143" r:id="rId230" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npIB6bJWKkKMqNp3Hmpwofu9eKsood6hwYmXa9tXfuwKOB0-7_dq1iKs-GvU_CCs2XEFTl0ihl5Le2nJLsilfYyDrm0oSDEGfaLTgq2InzDVyzP0DqiWFAF_BU9FeOABb5ofUHC=w426-h240-k-no"/>
+    <hyperlink ref="I144" r:id="rId231" display="https://www.elrosal.net/"/>
+    <hyperlink ref="L144" r:id="rId232" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrtwLjrA_OwtnNLzz2GYUDKRlaBklK82ugw7Fvf7ZOkXoekEm_6iRgAK4pzOW-EeCMhqU2X_y9D-bnivMasHdFPbtxdFS8-M_GVV6yE2LSDKGxR8bARUruRnArFUfe3Nob3ITVCfQ=w408-h306-k-no"/>
+    <hyperlink ref="L145" r:id="rId233" display="https://lh3.googleusercontent.com/p/AF1QipOPZy19YDLyu9N2Jb59b-scvzN5uYAY0zNvWMMA=w408-h544-k-no"/>
+    <hyperlink ref="L146" r:id="rId234" display="https://lh3.googleusercontent.com/p/AF1QipOf6__wDKBypGPoBfw5jFf9f83tlBsp68d7PTBG=w408-h405-k-no"/>
+    <hyperlink ref="L147" r:id="rId235" display="https://lh3.googleusercontent.com/p/AF1QipO9hflXayZkwXBCwua5NwwIzkblEYiqW1qhUM0=w408-h288-k-no"/>
+    <hyperlink ref="L148" r:id="rId236" display="https://lh3.googleusercontent.com/p/AF1QipO0cRnjNfHIUHFIIdFSPT7ROGpFgQ-fYVjLdnqA=w408-h577-k-no"/>
+    <hyperlink ref="I149" r:id="rId237" display="https://compostilla.com/carta/c_compostilla.pdf"/>
+    <hyperlink ref="L149" r:id="rId238" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nryS4MdW9BGHs9iStaJ2QeAKXezwMpyIvyBqSOfTzCfRTA_9lJQNN_u20WBd8MO9ad73KFRqmbdBfBWkQbB1qz3PavkmWP4VUlvYBNX6lBwHcVkTnsSur8qKLV6VlunC8ygDc5i=w408-h544-k-no"/>
+    <hyperlink ref="I150" r:id="rId239" display="https://elkingkong.com/"/>
+    <hyperlink ref="L150" r:id="rId240" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqtqiuUIvpKZmZ7BEcqkXqF09-mXwnyZYrV6MxXn6t8a7CjGfG8BL6E8HL7p73MjLxffZ1a1C3mKUw4UGaz4m8PyZLZCPxXS-UdJ0hlEnX_4TjADAf1I8kqGngWcr_fyqIckho=w408-h306-k-no"/>
+    <hyperlink ref="L151" r:id="rId241" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrxkp3AG8C4VuWrTZj4Pizq2YAeOoR3K9YdfnZyTslNrkw5nTFvyJIhTwGwxmtf1NYciUbeqeiY9STkbwd9iuKGGwl7vNXlgwOYbQecAx1KFtA-NQtA4f1fiCkUzu4z58U13dpj=w408-h305-k-no"/>
+    <hyperlink ref="L152" r:id="rId242" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no9P5yodjZXnyk_8XzcC-zRcA98Xw14Z5o8z0Hs_ytaObLZu54C0Fwqj7UhubAqPsokBbIYpVFXp5renh21C3GLHJiGC4Coi5ZNqcDTqykokrt20BBuKI_2ZtOcSvH8qUGcsze9=w408-h306-k-no"/>
+    <hyperlink ref="L153" r:id="rId243" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrOvQRnkX6-yrJEO2rQ3gpZJLND6ysTJCcHwa4gaGNFRWSDDMAsIpoGUOuybXblu7IYYP9lY3JpMOyWEmJnCpRNbYKx9pg7UTfBRhNjeNcIxvxN-NzhsKL9IFjInDtvQGJip25_=w408-h307-k-no"/>
+    <hyperlink ref="L154" r:id="rId244" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqfJQ48cKDZXg0ZxgFH3A0_EQYF5vxR3Ao7FDzi98a7Ej0BLsUiW3AV5O_l9TzOA2Po1ygd8434O4G0YKCEyGoNhFpWt3xHyYCKIsBaTHzVI3hXKW3PcEQWo0kQqJfZD9tG75af=w426-h240-k-no"/>
+    <hyperlink ref="L155" r:id="rId245" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq9yJ5bMicDvVTBq5yOkSCLJdkI46dCfuinAOUl_DiOfZBvubWm9HR6JJmid6GRp_bNaM0D510wsPH412y1G4BuEEqKom1zn56wo72ar1AuwZeZqd_F83DBHlz6ohtSYs4We9VD=w408-h544-k-no"/>
+    <hyperlink ref="L156" r:id="rId246" display="https://lh3.googleusercontent.com/p/AF1QipPFd9Cn4MWW6BYXQMZGxK1XjmL_lsSMXiG3XZ4_=w408-h306-k-no"/>
+    <hyperlink ref="I157" r:id="rId247" display="http://mesonvinotecalabodeguilla.multiespaciosweb.com/"/>
+    <hyperlink ref="L157" r:id="rId248" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npPIWUPHL4087tI16oKfVU-k6gH7yQjM6eJMYaWErON8TahEtk3lJTn2Xoig5r4SFEoGQ3E6N2P63Ri9vmfzM1DQfULMGBy31NBfGAs3oR39oKISz31GHRs8x42YbnyLCEcsHFnrQ=w408-h306-k-no"/>
+    <hyperlink ref="L158" r:id="rId249" display="https://lh3.googleusercontent.com/p/AF1QipMMtSbelnm9U8XrOWpvC-uuuNlmJHfhhMuI1zSn=w426-h240-k-no"/>
+    <hyperlink ref="I159" r:id="rId250" display="https://www.lamarmitaverde.com/"/>
+    <hyperlink ref="L159" r:id="rId251" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no3gZxu7m9C1KyMblBdYCaF9ilxYcCel84N_B-HVpHvhbWEoqKbNKnpsVR3hu1qwuIXNFYXDST94KA6K6zkBm4LfWYOz7Fmpuo-Rhh6CT5H6HB6gAB_EmROBoJuU9h48o4NlFUnVA=w408-h306-k-no"/>
+    <hyperlink ref="L160" r:id="rId252" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrbOjhLGs3S0RThnFoOAscfdl5GPbULxcQXM4nFBO56g_GNevTKdqS79FlVKRwCkgHJoVCxSYzBcSW114-h50piLw5O3oEY0aQbTXTa9tj1c0cQEUB30ZfNshpZ93ZjZZuM95S0=w408-h544-k-no"/>
+    <hyperlink ref="I161" r:id="rId253" display="https://www.instagram.com/s/aGlnaGxpZ2h0OjE3ODgwMDc2MzQ2Njc4MzE2?story_media_id=2861845481865926848_44415923018&amp;amp;igshid=YmMyMTA2M2Y="/>
+    <hyperlink ref="L161" r:id="rId254" display="https://lh3.googleusercontent.com/p/AF1QipOSxiAweLAmi2Tn7NDiDC3HYAmLPQqa01EKrSY5=w408-h306-k-no"/>
+    <hyperlink ref="I162" r:id="rId255" display="https://www.llaollaoweb.com/es"/>
+    <hyperlink ref="L162" r:id="rId256" display="https://lh3.googleusercontent.com/p/AF1QipPYJetLsMlMmfMywAAfVlUNK8HoRimalH6dyizL=w408-h408-k-no"/>
+    <hyperlink ref="L163" r:id="rId257" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npvS6GjNxIY4Z1FMrxOqQEx31mIvik39ycPLcaVQDqAnBsocVAuxfYFPbpCNHr3rwjuoMdQm3nLA1sYqauGEybP3iOlCAEGW_PVYyULLqkD1rcWK0iZw2sMzpduEtJ-EgIh117h=w408-h306-k-no"/>
+    <hyperlink ref="L164" r:id="rId258" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npYRxqxxqFcGsJ-JeJKsYoE8ro3WqWrezjodXOlfRIn65NujTSDsdgDaLquEQWjj3ysX5SEqkUn5mTj9L9nDOcKl3onSJLROFs5awtP39XKGBHvTcR48XgrQEhlapNc8LThxhEm2Q=w501-h240-k-no"/>
+    <hyperlink ref="I165" r:id="rId259" display="http://www.mercadona.es/"/>
+    <hyperlink ref="L165" r:id="rId260" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrhfkQTVrHtThwiPO8ov4NnPD3mmV08RTNq9luXSCSmzd22CYXPeGKm2gFu_JsXMHde96mGJKYhhLTqIrnHpzOITmGYpm-QCi7lff5IAtnPn6StVmPKIaxssPXzsmf74k-MY78tsg=w408-h328-k-no"/>
+    <hyperlink ref="I166" r:id="rId261" display="http://museojungle.es/"/>
+    <hyperlink ref="L166" r:id="rId262" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npVj4SbLD1nJFbhH3qJx0xhFODJxvwsFsRZ6zrqSSNgugQbr-xiikWFJ4JQ0bOissZC1_Iq-TaqVQY6-oZ41O_sAsvvqcC2XXP9lOq2njJapSs6eoL6ptWvThSLGR-9u9y391DVWA=w408-h305-k-no"/>
+    <hyperlink ref="I167" r:id="rId263" display="https://musiorestaurante.abastosponferrada.es/"/>
+    <hyperlink ref="L167" r:id="rId264" display="https://lh3.googleusercontent.com/p/AF1QipOB-DR8u5mTYJzbJ2vd1dhOFaLx7H5-wiFkATlh=w408-h272-k-no"/>
+    <hyperlink ref="I168" r:id="rId265" display="https://www.pradoplant.es/"/>
+    <hyperlink ref="L168" r:id="rId266" display="https://lh3.googleusercontent.com/p/AF1QipPaVGkPpDz44eVqY6LWn4M4vFuHd9kj91OAu4As=w408-h306-k-no"/>
+    <hyperlink ref="I169" r:id="rId267" display="https://www.restaurantealessandra.com/"/>
+    <hyperlink ref="L169" r:id="rId268" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npqT4-8nhM6WdAfh7j7KleYk83ijx5Bgo9ExTrDZwE63_BfZmB_WMrmPxE4mvrebwnWoxaJKQCMzcuA0sn90vzp6ZJhN3RQVmsa6WpXSkkPnW78HKL4LH4I-UShYC7AXB0BwRY=w426-h240-k-no"/>
+    <hyperlink ref="I170" r:id="rId269" display="https://www.restauranteessencia.es/es/"/>
+    <hyperlink ref="L170" r:id="rId270" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrHvm_LxPabHO0ReqO-GuEt8vD810lfAHE08-GwxJJtLVHh-aXw9tA6zq8fhp33QqBPfhglMlGMOmE_RhJzO-t5NK-qXJyx93B9YW9LxoxT8C1995EbLU5f01mEkaVMtsrVkt3Z=w426-h240-k-no"/>
+    <hyperlink ref="L171" r:id="rId271" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrQcv-M96D3rrhLQ7fPu_rbLts0P9UawATI1q3BP2elI6-v7Yb71j9oXSTiRIKkmprmP_EWr-WSOpWqY5866K-1Z9gCvo5RvOvCSBkl-CYS6TEUeF0G_sMItpUl35EDwbWbN2ss3A=w408-h306-k-no"/>
+    <hyperlink ref="I172" r:id="rId272" display="http://www.lascuadras.es/"/>
+    <hyperlink ref="L172" r:id="rId273" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nra_h0-cSIk7XbZnO7Osz9P02u_WiDjrWCqM_AcYO3H1Xm0aucQb_nvbklFviF_s20dUgoAC2IqXxm_6P2Zd0WarsoLrho7A-_1l9QjQSTFkkH9aMNjMBfsj7YSTualNO8w10EHew=w408-h306-k-no"/>
+    <hyperlink ref="L173" r:id="rId274" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4norK9ub27AIqxjI3LbxMqrhYPswFA8RHXpcefj0bFcB4ZZeiqiVpZZH3iULzrQ3upKSo0dlou8N2DZt-EkVBv1_kqxPgbo8h5q7pNDm6x0526BBpk4LosAmJgSDYeGqYR1dGw8E=w408-h305-k-no"/>
+    <hyperlink ref="L174" r:id="rId275" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=xaf5y3_sYpVycJQXnhMMCw&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=253.246&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="I175" r:id="rId276" display="http://www.rositamilagros.com/"/>
+    <hyperlink ref="L175" r:id="rId277" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqF66goOcHAe_cQ_G3z4SgoHOOtMHid8A_AJfsW3-zWaim-YUOqk9qCsbiGXppDDC39j7qoG4JkgTWD6A49pAEdH80GBoOJEs1JzSdJYSnn2Zbz0CGPDtckrdM9DM6wE1_P1Rok2Q=w426-h240-k-no"/>
+    <hyperlink ref="I176" r:id="rId278" display="https://www.sandraromeropatisserie.com/"/>
+    <hyperlink ref="L176" r:id="rId279" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrcxpY2y_dBwvm2Km-Q9JbI48ryUHGQYe5SmdbZj9S45bk58LRs3fvAuj-rVUAlTsOJ8p0SM2dbYdTe1VDO-mjdno3TxDD5Vhgfw0_0432kotTRfHn4qENQK9oJngVCp5Lu2DSF=w426-h240-k-no"/>
+    <hyperlink ref="I177" r:id="rId280" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
+    <hyperlink ref="L177" r:id="rId281" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr4cppsYkEb86BznSakda9zXel_Ib54Xe7DS1pcEO5fUzRytk5L2BIYVd_0mBi9i4ikL6BQ1EbenjawXmroDqptUP3pww-to_gQC1lkh6l3YC4NQAXuTdMe_ZdkOQAszeLcU85X=w408-h306-k-no"/>
+    <hyperlink ref="I178" r:id="rId282" display="https://www.alimerkaonline.es/?utm_source=google&amp;amp;utm_medium=local&amp;amp;utm_campaign=google-local"/>
+    <hyperlink ref="L178" r:id="rId283" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no_8UkpWrEdUfhQL6FultJfoPunbeLbvDfIRVQoXjBqsf5gnn8xK-yn16nU_xQe0il4kkR-nzuHLibrfXH55mIBeP_YpCN90DOL2hSs1ZXyWgDFtxShrtRbnYoUPs8tAvU7EmyquQ=w426-h240-k-no"/>
+    <hyperlink ref="I179" r:id="rId284" display="http://www.gadis.es/"/>
+    <hyperlink ref="L179" r:id="rId285" display="https://lh3.googleusercontent.com/p/AF1QipNfGFiNpvp8Dsw6vb0CgMHdz2GgxldTu-ftrr_f=w408-h306-k-no"/>
+    <hyperlink ref="I180" r:id="rId286" display="https://www.tedi.com/stores/8289/ES/Castilla-y-Le%C3%B3n/Ponferrada/Le%C3%B3n/Avenida-de-la-Constitucion-2"/>
+    <hyperlink ref="L180" r:id="rId287" display="https://streetviewpixels-pa.googleapis.com/v1/thumbnail?panoid=LCWmIzir0Cm8Tx2x7qU3Sg&amp;cb_client=search.gws-prod.gps&amp;w=408&amp;h=240&amp;yaw=350.02115&amp;pitch=0&amp;thumbfov=100"/>
+    <hyperlink ref="L181" r:id="rId288" display="https://lh3.googleusercontent.com/p/AF1QipMCwt-9eW9CdoTWldrauJvT_XTOiyLsNOu8MCkl=w408-h306-k-no"/>
+    <hyperlink ref="I182" r:id="rId289" display="https://www.instagram.com/veztial.bar?igsh=MTZvZjAwcGptMnhrdg=="/>
+    <hyperlink ref="L182" r:id="rId290" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrWJLAUeYE5K4RrO_Y-o4iKI1z-SmOsjcoa3Xhqu1kRyrV46g5aC2iRCKX-aDEnjJDPTc9U_4SsNZxCYlP96LAu1nitI-BoO9D7kQOPgCqPBYVnrkl7eeJWQOD7pNehPhD6vYzY7A=w408-h506-k-no"/>
+    <hyperlink ref="I183" r:id="rId291" display="https://www.instagram.com/vinomioybotanico_ponferrada/"/>
+    <hyperlink ref="L183" r:id="rId292" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no2PA04XYt_MLVOYCHqV3--kbVHjKPVL1BQdpsd5WS4jl07oosKXrOLnAn9a_aQAkLHyk3U5UeRzU7kKfTruPulRWmyiuP_FeGqzDt-Nn_vYzGNhd6x9TFvF5Gc49sPGxWjwewFeA=w408-h306-k-no"/>
+    <hyperlink ref="L184" r:id="rId293" display="https://lh3.googleusercontent.com/p/AF1QipNgKqNOYsne8igd03cyMK9V_XpBEo2-GA1rsVuB=w426-h240-k-no"/>
+    <hyperlink ref="L185" r:id="rId294" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrvpk87IeZHSM3c1bsI0yMcUvHzOZR9cGmb0RtCiDgvkcaHc5_WVElIxTBSsXUkuCItg199ehLT6EXlf-qe7Pymmb1gwZFvf07cYsAzcwhU7_Nd2amwB0iB5C4mAkv1h9_9Yg2w=w408-h725-k-no"/>
+    <hyperlink ref="L186" r:id="rId295" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np4wdK53kWauJMbP7YY-TvvnaEY0i86B7zHF7ywe3lh6QIpy0fXtvMt9m3iefaOA8IJvFduQX18RBjuRT5xQ9hcZe3ssti3JVcP-HgqhOlZUQlcTUMNLg9EccIsAnc3Cr0wtDtt=w408-h306-k-no"/>
+    <hyperlink ref="I187" r:id="rId296" display="https://www.elregueromoro.com/"/>
+    <hyperlink ref="L187" r:id="rId297" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npyurJt7iKlwyn4jLJ70Kg0KtWTEwsnlRhR-ZSTEdPn6PJScV3rCTdc85pJFaUR9hFboAM7QuJAehwCbV_rxYrQfFsbo98Mxqv17s_vs4cH0746qN9mJSgnLmR0-E5PZGQrtvf5Qw=w408-h306-k-no"/>
+    <hyperlink ref="I188" r:id="rId298" display="http://www.amorino.com/es?utm_source=google&amp;amp;utm_medium=organic&amp;amp;utm_campaign=mybusiness-products"/>
+    <hyperlink ref="L188" r:id="rId299" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrl2_wvI26Rp2cawimq1OtJLtZzC34rT7UXayoWskM91a0C03nFwxJHvts2IEQkK1vSInglPZOoQSghlMVj78i5KiIebdiuakitcK30cZxVFsQHgUOspA14vPLk3I95ZCTzsrKP=w408-h544-k-no"/>
+    <hyperlink ref="I189" r:id="rId300" display="http://creperielarue.com/"/>
+    <hyperlink ref="L189" r:id="rId301" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrdg9Zx8wK1_5n3S0gWwi4is1CerNUJAa3ZzWORiPEIzKwiiLO9inYLDHu46r1mDyo5hCOb7xegGtvA5n9RQc5_lCjS6tBJDg3CmLLwwcgvT7hGbw19AU-1wx7RMWdwC7avlh1EQg=w408-h397-k-no"/>
+    <hyperlink ref="L190" r:id="rId302" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr1JgF-0xVudd54UK5OF--q56BxgIWEOYhXwbDTiVcBIJE6Ol2aWsEWFPwVHUbAWhnY4I99sShOQxXAKNwhrbevtD1Y0vtyguDBwRkFTKNGAY9s8EMhb9tgPyI8VLryF34mmBYY=w408-h306-k-no"/>
+    <hyperlink ref="L191" r:id="rId303" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nruH1tvpOpZPU85DLxIvaf-aDWdeYK-Vfe5osR_GautaSEQPUkJa1qcDBf2ts0ApgcAP1ZJqCtF4rQSTiAn-P6u3NVl9hEwkGWWRdHgOzO9tG3NitEUQbH0lmSIswxKVOxK9sKX=w408-h544-k-no"/>
+    <hyperlink ref="L192" r:id="rId304" display="https://lh3.googleusercontent.com/p/AF1QipPCISDmFzXxHl_yYZ6W7uuo5vDTbIGHpV-4R28i=w408-h408-k-no"/>
+    <hyperlink ref="L193" r:id="rId305" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4np1HuCLPoq4nIKwKxQXQ5GByYzQXfLfh-LzuquNWdSTp6IZCv46KzkiBlANYVHKiv-R3rQxvrBMqrEXSL4yJCIi_l4Frkx5s6ac07sznyvoTFs41nwHSU4G3MVfD6PmgRqXYGg=w426-h240-k-no"/>
+    <hyperlink ref="L194" r:id="rId306" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4not4ZoEw9JEfcx29P_hphAYiJ-OCHU6-xO-r3bTwbK-BWqtS_H_E4KR7JpHdZMewB6e_esTTmTxWQkSZG6Hyc3JOR9vgM6xvP8E4u01dzKiPdRTjaVC1LmVM7iBc614XkegC0c=w408-h320-k-no"/>
+    <hyperlink ref="I195" r:id="rId307" display="http://www.lacreperie-easycrep.es/"/>
+    <hyperlink ref="L195" r:id="rId308" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqzop_f7WMpANEtOMjBjycVaDjxxzHFDm1a8Mtga5Sq_2mbVmOtdly8B3_lUEhNQwScFhulTvy7pAUb5WcyGXv3FFXfzw_dfsnbNk6dMoJKXdVZ1eKncUd4bjhlKOThgp2XN6Rn=w408-h544-k-no"/>
+    <hyperlink ref="I196" r:id="rId309" display="https://laminoterie.es/"/>
+    <hyperlink ref="L196" r:id="rId310" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npBUKVQlpXo_JCfASqMcdHSY4ZuAnnScshrb40NJNpkiBhmjV_XTD3_WbwrDmZyJHacOPqojma0T-ctR-xWXrCGXUjBA1UoHA3zfPSJsaXycXLBVzUYOP1bPJKx5VSCpjal7Zh0=w408-h306-k-no"/>
+    <hyperlink ref="I197" r:id="rId311" display="http://www.mademoiselle.es/"/>
+    <hyperlink ref="L197" r:id="rId312" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nr3MqLMk5hJtHyWlnJ95p4umh-IsKKMaAyGYzP9PxeUd1O0mNGU3S4DZr8BSqYRjjEbGfIAT_4eqb_Od1jqLH-u_0fwOhCp_AbTHzogiwnNqKWBOEbUoJ6Xla3G_bPW2D0ZhaUp=w408-h306-k-no"/>
+    <hyperlink ref="I198" r:id="rId313" display="https://www.instagram.com/themimiscafe/"/>
+    <hyperlink ref="L198" r:id="rId314" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nq0MlgWLjwT4eO3qDmOIPuFq8tuTOF-KKqnY0iOdKE4eeRXti3xfTVsSRQbE8ewgD6h0RL6UDyWCLCR-Aq8HpJZNYG2jrrUVCMFx0M20RGp0k2EuItdMCYEDjkv2B-BxueQNTAu=w408-h306-k-no"/>
+    <hyperlink ref="I199" r:id="rId315" display="http://misturaicecream.com/"/>
+    <hyperlink ref="L199" r:id="rId316" display="https://lh3.googleusercontent.com/p/AF1QipOnicJFO_cODl5L44dNveOn-OCPojFJtuvbUn2C=w408-h271-k-no"/>
+    <hyperlink ref="I200" r:id="rId317" display="http://misturaicecream.com/"/>
+    <hyperlink ref="L200" r:id="rId318" display="https://lh3.googleusercontent.com/p/AF1QipNjVO_Et8wtR2lSNZ3jwwRxDSVYXmguZTpTdBFQ=w408-h408-k-no"/>
+    <hyperlink ref="I201" r:id="rId319" display="https://preplacrepe.com/"/>
+    <hyperlink ref="L201" r:id="rId320" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrnKUbMpUEmKx7GdOnQqCcqMECUhFACWBJGa8PjDs0Az72X8SSfGE_NjT-0Nuu4wBo2FBwaAFsHqiSVcTJXCb1x9i8JgVK-hZQ60op-GE6YjqoES_t362FTrNeTc2PUQldeT5UTSg=w408-h306-k-no"/>
+    <hyperlink ref="L202" r:id="rId321" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nrz2Zn6h5Btx5SvL32rsDn9vTWTNeTDTSdVI3-nyrlLcoBoB69ZHLI2BTY_6gBWFaYTrve7epkepPGOkrKJ9zcGpp1l2LM1_QBQaTEnTYSdezP2bf9In0fuUSbUidV9mOfClDjjhQ=w408-h544-k-no"/>
+    <hyperlink ref="L203" r:id="rId322" display="https://lh3.googleusercontent.com/p/AF1QipN32KjgXZdZSCJ-tjTyREi7r2KZHRR2cE6cI3_x=w426-h240-k-no"/>
+    <hyperlink ref="L204" r:id="rId323" display="https://lh3.googleusercontent.com/p/AF1QipM9c7u_QV9vvu5GLJ_g7H739J3VgervLOvVuNAP=w408-h271-k-no"/>
+    <hyperlink ref="L205" r:id="rId324" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4no5qbaLm1CIC6_WvC4ukWudPJWpQ6ykyNhWgf6Hf0pq-eUKDCfuzy3Q2QwoPmbBEbAidBEeJ3PthDBgynwkQZkNVM6Pjq0WHzzH60107r3Md7wF9uzJbP769TPggSbzy1uM8q4s=w408-h544-k-no"/>
+    <hyperlink ref="I206" r:id="rId325" display="https://cervecerialepetitprince.es/"/>
+    <hyperlink ref="L206" r:id="rId326" display="https://lh3.googleusercontent.com/p/AF1QipON8JWUVhDFjfljNv2MwKOYaKioKLWNWM8RfgD7=w408-h612-k-no"/>
+    <hyperlink ref="I207" r:id="rId327" display="http://ehvoilaexpress.es/"/>
+    <hyperlink ref="L207" r:id="rId328" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npfUyQULDXwxwUZ5oR3qOpoBVBHGnF8PUa2voIii0p6lXeckitX7FW_grL2CkkLSP48-QZPWEj0okWgFP8B3Noq-XguiGs3oIaaCDJnP7uXW-Ax0KlrR5pEc2MX3Hvoabg0d2U=w408-h306-k-no"/>
+    <hyperlink ref="I208" r:id="rId329" display="http://www.grupomoga.com/es/ferreti-rio-shopping-r8"/>
+    <hyperlink ref="L208" r:id="rId330" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4npUr8dpZdCf58vBMX9ZIIVXq70cjRxt9nQcWK5Jl8JI0AYZ0PajAivYqbJSa7NBuzEor-Y7rIY6CxxU74M5U9hLf-Lz9aD3oeDcEsAw88OiqWQpCfqKsn1V61j35Ih77tRuJzk1vw=w408-h306-k-no"/>
+    <hyperlink ref="L209" r:id="rId331" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nquOTivqMXn7kUJC7L7zAyjVkUgjZQbrPJyxoTYWMVovF4kd0beBJzsQiJuAogKy6rEiKQu_YYDe30xJ4Ik23oQGN3mo2pHEEXOAZucpqFbDiN8rAYZFARy-JqIfGHAVxoFpV3loQ=w408-h384-k-no"/>
+    <hyperlink ref="I210" r:id="rId332" display="http://brest.es/"/>
+    <hyperlink ref="L210" r:id="rId333" display="https://lh3.googleusercontent.com/p/AF1QipOwv1MahP-mh0GH4_tgTsn9SkE0Od8bk-j0z3gD=w408-h306-k-no"/>
+    <hyperlink ref="I211" r:id="rId334" display="https://www.ehvoila.es/"/>
+    <hyperlink ref="L211" r:id="rId335" display="https://lh3.googleusercontent.com/p/AF1QipMrUC0rflOygetsNhz5uU5QJCd6E8hPxLbStN9d=w408-h272-k-no"/>
+    <hyperlink ref="L212" r:id="rId336" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqyeieYlY0952KydtiXENYPBFMq8lnwuYCALhpEMWAOPmDPRGathK-o6Ao_xiSsTTFNixKKhGl2G8yyz39wtPFkaRUCStVjmFWmJ_gRwNzXNqJmKWy1P-tMgLZdOitOKcRfZksN9g=w408-h306-k-no"/>
+    <hyperlink ref="I213" r:id="rId337" display="https://llaollaoweb.com/"/>
+    <hyperlink ref="L213" r:id="rId338" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nragb6tuDYxlUrSaP0R-2JbJOHWiZQrTXFNyl0olNfINfK3T-WhZV4SzPNuHFXZoHZxMQCeiiRq-GWjMSs1OlPpZ9ML5kq-29dH4OqgiOeKWESI807X6cR6z6-y21olI_3BvRbM=w408-h556-k-no"/>
+    <hyperlink ref="I214" r:id="rId339" display="https://www.llaollaoweb.com/es"/>
+    <hyperlink ref="L214" r:id="rId340" display="https://lh3.googleusercontent.com/p/AF1QipMRoo-cp3YbeVt5TAcRsYShFLmVHK0bRxYgZLda=w408-h408-k-no"/>
+    <hyperlink ref="L215" r:id="rId341" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqGAIszYrfC89pcq6NAibyY4BM3thQLySack6RUyIB76FW42EJByFXcBPfFnCZR2HZqURMFXP-gXZWPh-0-quZMOKeZWZPfRcOfGwd8urI381q7tNzHD51KPt-LYGQ6y-MYA-j_=w408-h305-k-no"/>
+    <hyperlink ref="I216" r:id="rId342" display="https://bit.ly/TuGofreCarta"/>
+    <hyperlink ref="L216" r:id="rId343" display="https://lh3.googleusercontent.com/gps-cs-s/AC9h4nqvoC4iqDrLljkrcHqXZI4zjBdnUBSG3Ti1_LKGhJ9-9gapPUBavFqqvD4-_cECkqQKaz351s0a-pcf-m-a3mh-_klq9SDnIQ2ZcJOX6EzBPh5QZQEWEEsWxCGN4tTxxTtqNtQVkw=w408-h544-k-no"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/castilla_leon_1.xlsx
+++ b/castilla_leon_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="337">
   <si>
     <t xml:space="preserve">Pastelería Dolce Vita</t>
   </si>
@@ -1362,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2091,7 +2091,9 @@
       <c r="D19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>186</v>
       </c>
@@ -2130,7 +2132,9 @@
       <c r="D20" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>195</v>
       </c>
@@ -2366,7 +2370,9 @@
       <c r="D26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>249</v>
       </c>
